--- a/寵物照護QA.xlsx
+++ b/寵物照護QA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29101"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DACFAC0-8F84-4F3B-B033-08DD9FC7FF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0714E3B7-C3B7-4B0C-946D-9966AA843B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="飼養前的準備" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="160">
   <si>
     <t>Q1</t>
   </si>
@@ -400,6 +400,126 @@
   </si>
   <si>
     <t>多梳毛、補充營養、保持皮膚健康，必要時就醫。</t>
+  </si>
+  <si>
+    <t>寵物亂咬東西怎麼辦？</t>
+  </si>
+  <si>
+    <t>提供適當玩具轉移注意力，並使用「不」的口令訓練。</t>
+  </si>
+  <si>
+    <t>寵物尿在不對地方怎麼辦？</t>
+  </si>
+  <si>
+    <t>立即清潔氣味、重新建立定點如廁習慣，可搭配獎勵制。</t>
+  </si>
+  <si>
+    <t>狗狗吠叫不停怎麼處理？</t>
+  </si>
+  <si>
+    <t>找出觸發原因（警戒、焦慮、無聊），針對原因訓練改善。</t>
+  </si>
+  <si>
+    <t>可以用打罵來訓練嗎？</t>
+  </si>
+  <si>
+    <t>不建議。正向訓練比責罵更有效且不傷害關係。</t>
+  </si>
+  <si>
+    <t>如何教狗狗坐下、握手等指令？</t>
+  </si>
+  <si>
+    <t>使用口令+手勢+零食鼓勵，循序漸進練習。</t>
+  </si>
+  <si>
+    <t>為什麼貓咪總是跳上桌子？</t>
+  </si>
+  <si>
+    <t>因為好奇與視野需求。可設置貓跳台並限制禁區。</t>
+  </si>
+  <si>
+    <t>狗狗會分離焦慮嗎？</t>
+  </si>
+  <si>
+    <t>會。需透過短暫離開漸進適應、玩具陪伴、穩定作息緩解。</t>
+  </si>
+  <si>
+    <t>可以讓寵物睡在床上嗎？</t>
+  </si>
+  <si>
+    <t>視飼主習慣與衛生考量而定，重要的是保持清潔。</t>
+  </si>
+  <si>
+    <t>寵物一直舔自己怎麼辦？</t>
+  </si>
+  <si>
+    <t>若過度舔毛可能是過敏、壓力或傷口，需就醫確認。</t>
+  </si>
+  <si>
+    <t>怎麼跟寵物建立信任關係？</t>
+  </si>
+  <si>
+    <t>多陪伴、溫和互動、避免驚嚇、建立安全感與規律作息</t>
+  </si>
+  <si>
+    <t>寵物可以自由在家活動嗎？</t>
+  </si>
+  <si>
+    <t>建議設立安全區域與基本限制，避免危險空間。</t>
+  </si>
+  <si>
+    <t>家中哪些東西對寵物有毒？</t>
+  </si>
+  <si>
+    <t>包括巧克力、酒精、洋蔥、百合花、清潔劑等。</t>
+  </si>
+  <si>
+    <t>怎麼防止寵物咬電線？</t>
+  </si>
+  <si>
+    <t>用苦味劑、收線管包覆，並提供咬咬玩具轉移。</t>
+  </si>
+  <si>
+    <t>貓咪會跳窗戶怎麼辦？</t>
+  </si>
+  <si>
+    <t>安裝紗窗或貓網，避免墜樓意外。</t>
+  </si>
+  <si>
+    <t>寵物能留在陽台嗎？</t>
+  </si>
+  <si>
+    <t>不建議長時間單獨留置，應有遮陰、防墜與通風設施。</t>
+  </si>
+  <si>
+    <t>室內該準備什麼給寵物？</t>
+  </si>
+  <si>
+    <t>舒適床墊、水碗、廁所（砂盆或尿墊）、玩具等。</t>
+  </si>
+  <si>
+    <t>貓砂該多久清一次？</t>
+  </si>
+  <si>
+    <t>建議每日清除排泄物，整盆每週更換一次。</t>
+  </si>
+  <si>
+    <t>寵物能和小孩一起生活嗎？</t>
+  </si>
+  <si>
+    <t>可以，但要教導小孩尊重與正確互動方式。</t>
+  </si>
+  <si>
+    <t>寵物打翻東西怎麼訓練改善？</t>
+  </si>
+  <si>
+    <t>建立「不可以」的界線，避免把易碎物放在低處。</t>
+  </si>
+  <si>
+    <t>可以在家使用芳香精油嗎？</t>
+  </si>
+  <si>
+    <t>很多精油對寵物有毒，使用前務必查明安全性。</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F3AE6E-7AF3-4A01-B3F9-9B6CC32C4B8F}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1661,92 +1781,156 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F1A093-287A-4A4C-9129-0C1B7112C14F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="81.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
       <c r="C10" t="s">
         <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1756,92 +1940,156 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC993D7-B4F2-4EDB-AB2B-F30ECFC47A91}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.75" customWidth="1"/>
+    <col min="4" max="4" width="65.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
       <c r="C10" t="s">
         <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/寵物照護QA.xlsx
+++ b/寵物照護QA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0714E3B7-C3B7-4B0C-946D-9966AA843B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DA4B9A-EA21-40B2-92F6-E44D52EAF3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="飼養前的準備" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="180">
   <si>
     <t>Q1</t>
   </si>
@@ -520,6 +520,66 @@
   </si>
   <si>
     <t>很多精油對寵物有毒，使用前務必查明安全性。</t>
+  </si>
+  <si>
+    <t>寵物能搭大眾運輸嗎？</t>
+  </si>
+  <si>
+    <t>多數地區需籠裝、不能影響他人，視各地法規與車輛規定。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 如何帶寵物坐車不暈車？</t>
+  </si>
+  <si>
+    <t>旅程前禁食、保持通風、用熟悉玩具安撫。嚴重者可請獸醫開藥。</t>
+  </si>
+  <si>
+    <t>帶寵物旅行需要準備什麼？</t>
+  </si>
+  <si>
+    <t>食物、水、碗、尿墊、證件、藥品與習慣物品。</t>
+  </si>
+  <si>
+    <t>狗狗外出散步多久為佳？</t>
+  </si>
+  <si>
+    <t>一天兩次、每次20–30分鐘，可依品種與年齡調整。</t>
+  </si>
+  <si>
+    <t>可以讓寵物自由奔跑嗎？</t>
+  </si>
+  <si>
+    <t>公共場合應牽繩，除非是合法開放的寵物公園。</t>
+  </si>
+  <si>
+    <t>貓咪也可以外出嗎？</t>
+  </si>
+  <si>
+    <t>可，但需適應訓練與胸背帶或推車輔助。</t>
+  </si>
+  <si>
+    <t>旅館可以帶寵物嗎？</t>
+  </si>
+  <si>
+    <t>查詢「寵物友善」旅宿，有些須額外收費或遵守規定。</t>
+  </si>
+  <si>
+    <t>搭飛機怎麼帶寵物？</t>
+  </si>
+  <si>
+    <t>須辦理航空公司規定的手續與健康證明，並裝入航空籠。</t>
+  </si>
+  <si>
+    <t>出國可以帶寵物嗎？</t>
+  </si>
+  <si>
+    <t>需辦理檢疫、健康證明與入境許可，流程複雜建議提早規劃。</t>
+  </si>
+  <si>
+    <t>寵物外出走失怎麼辦？</t>
+  </si>
+  <si>
+    <t>若有晶片與項圈能協助尋回，應立即通報動保機構與張貼協尋。</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +2003,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2099,92 +2159,156 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFB25E-CEC9-47AA-9A23-DC74163708C6}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="60.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
       <c r="C10" t="s">
         <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/寵物照護QA.xlsx
+++ b/寵物照護QA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0714E3B7-C3B7-4B0C-946D-9966AA843B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECAA1C4-0693-4B12-8F8A-453CEAE235AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="飼養前的準備" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="220">
   <si>
     <t>Q1</t>
   </si>
@@ -520,6 +520,186 @@
   </si>
   <si>
     <t>很多精油對寵物有毒，使用前務必查明安全性。</t>
+  </si>
+  <si>
+    <t>寵物能搭大眾運輸嗎？</t>
+  </si>
+  <si>
+    <t>多數地區需籠裝、不能影響他人，視各地法規與車輛規定。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 如何帶寵物坐車不暈車？</t>
+  </si>
+  <si>
+    <t>旅程前禁食、保持通風、用熟悉玩具安撫。嚴重者可請獸醫開藥。</t>
+  </si>
+  <si>
+    <t>帶寵物旅行需要準備什麼？</t>
+  </si>
+  <si>
+    <t>食物、水、碗、尿墊、證件、藥品與習慣物品。</t>
+  </si>
+  <si>
+    <t>狗狗外出散步多久為佳？</t>
+  </si>
+  <si>
+    <t>一天兩次、每次20–30分鐘，可依品種與年齡調整。</t>
+  </si>
+  <si>
+    <t>可以讓寵物自由奔跑嗎？</t>
+  </si>
+  <si>
+    <t>公共場合應牽繩，除非是合法開放的寵物公園。</t>
+  </si>
+  <si>
+    <t>貓咪也可以外出嗎？</t>
+  </si>
+  <si>
+    <t>可，但需適應訓練與胸背帶或推車輔助。</t>
+  </si>
+  <si>
+    <t>旅館可以帶寵物嗎？</t>
+  </si>
+  <si>
+    <t>查詢「寵物友善」旅宿，有些須額外收費或遵守規定。</t>
+  </si>
+  <si>
+    <t>搭飛機怎麼帶寵物？</t>
+  </si>
+  <si>
+    <t>須辦理航空公司規定的手續與健康證明，並裝入航空籠。</t>
+  </si>
+  <si>
+    <t>出國可以帶寵物嗎？</t>
+  </si>
+  <si>
+    <t>需辦理檢疫、健康證明與入境許可，流程複雜建議提早規劃。</t>
+  </si>
+  <si>
+    <t>寵物外出走失怎麼辦？</t>
+  </si>
+  <si>
+    <t>若有晶片與項圈能協助尋回，應立即通報動保機構與張貼協尋。</t>
+  </si>
+  <si>
+    <t>寵物幾歲算老？</t>
+  </si>
+  <si>
+    <t>狗狗7歲、貓咪10歲以上視為老年期。</t>
+  </si>
+  <si>
+    <t>老年寵物食物需要更換嗎？</t>
+  </si>
+  <si>
+    <t>是，需改為低熱量、高纖、易消化的配方。</t>
+  </si>
+  <si>
+    <t>老年寵物活動力變差怎麼辦？</t>
+  </si>
+  <si>
+    <t>適當運動可延緩退化，勿強迫，可使用輔助器具。</t>
+  </si>
+  <si>
+    <t>要做哪些健康檢查？</t>
+  </si>
+  <si>
+    <t>建議半年一次血檢、心臟、腎功能與牙科評估。</t>
+  </si>
+  <si>
+    <t>寵物出現失禁怎麼辦？</t>
+  </si>
+  <si>
+    <t>鋪吸水墊、調整飲食、就醫檢查是否泌尿問題。</t>
+  </si>
+  <si>
+    <t>老狗/貓睡很多正常嗎？</t>
+  </si>
+  <si>
+    <t>正常，但若嗜睡或不願互動，應檢查是否身體不適。</t>
+  </si>
+  <si>
+    <t>關節退化怎麼處理？</t>
+  </si>
+  <si>
+    <t>使用關節保健品、保暖床墊、減少跳高或爬樓梯。</t>
+  </si>
+  <si>
+    <t>老年寵物容易焦慮嗎？</t>
+  </si>
+  <si>
+    <t>是。建立規律作息與陪伴，有助減緩焦慮與退化。</t>
+  </si>
+  <si>
+    <t>寵物會有老年癡呆嗎？</t>
+  </si>
+  <si>
+    <t>有可能，表現為迷路、亂叫、日夜顛倒等，應就醫評估。</t>
+  </si>
+  <si>
+    <t>如何讓寵物善終？</t>
+  </si>
+  <si>
+    <t>提供尊嚴、舒適與陪伴，必要時考慮安寧照護或安樂選項。</t>
+  </si>
+  <si>
+    <t>寵物誤食異物怎麼辦？</t>
+  </si>
+  <si>
+    <t>切勿催吐，立即就醫。誤食物品可能卡住腸道或中毒。</t>
+  </si>
+  <si>
+    <t>怎麼處理寵物嘔吐？</t>
+  </si>
+  <si>
+    <t>偶爾可觀察禁食6小時，若頻繁或伴隨血液、無力應就醫。</t>
+  </si>
+  <si>
+    <t>寵物中毒怎麼急救？</t>
+  </si>
+  <si>
+    <t>記下毒物種類，勿自行催吐，立即送醫處理。</t>
+  </si>
+  <si>
+    <t>狗狗咬人怎麼辦？</t>
+  </si>
+  <si>
+    <t>立即隔離與清潔傷口，聯絡獸醫與當地動保機構處理。</t>
+  </si>
+  <si>
+    <t>寵物走失怎麼辦？</t>
+  </si>
+  <si>
+    <t>通報動保處、動物醫院、張貼協尋、發社群與寵物平台。</t>
+  </si>
+  <si>
+    <t>突然行為異常怎麼辦？</t>
+  </si>
+  <si>
+    <t>可能是疼痛、疾病或驚嚇，應儘快評估與就醫。</t>
+  </si>
+  <si>
+    <t>發情期要注意什麼？</t>
+  </si>
+  <si>
+    <t>情緒起伏大、亂尿、嚎叫，若不繁殖建議結紮。</t>
+  </si>
+  <si>
+    <t>飼主生病住院，寵物怎麼辦？</t>
+  </si>
+  <si>
+    <t>可托親友或專業寵物旅館照顧，避免臨時無人照料。</t>
+  </si>
+  <si>
+    <t>遇到自然災害怎麼辦？</t>
+  </si>
+  <si>
+    <t>準備緊急避難包：飼料、水、藥物、繩帶、疫苗紀錄等。</t>
+  </si>
+  <si>
+    <t>飼養寵物最重要的是什麼？</t>
+  </si>
+  <si>
+    <t>長期承諾、愛與耐心，讓牠成為你家庭的一份子。</t>
   </si>
 </sst>
 </file>
@@ -1050,92 +1230,156 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF99D1-DB70-4647-BADC-D5F8C4D9F1BE}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="4" max="4" width="69.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
       <c r="C10" t="s">
         <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1942,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC993D7-B4F2-4EDB-AB2B-F30ECFC47A91}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2099,92 +2343,156 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFB25E-CEC9-47AA-9A23-DC74163708C6}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="60.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
       <c r="C10" t="s">
         <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2194,92 +2502,156 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F869C3A-7135-4A4F-AF77-2933FEA8395D}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
       <c r="C10" t="s">
         <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/寵物照護QA.xlsx
+++ b/寵物照護QA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DA4B9A-EA21-40B2-92F6-E44D52EAF3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECAA1C4-0693-4B12-8F8A-453CEAE235AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="飼養前的準備" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="220">
   <si>
     <t>Q1</t>
   </si>
@@ -580,6 +580,126 @@
   </si>
   <si>
     <t>若有晶片與項圈能協助尋回，應立即通報動保機構與張貼協尋。</t>
+  </si>
+  <si>
+    <t>寵物幾歲算老？</t>
+  </si>
+  <si>
+    <t>狗狗7歲、貓咪10歲以上視為老年期。</t>
+  </si>
+  <si>
+    <t>老年寵物食物需要更換嗎？</t>
+  </si>
+  <si>
+    <t>是，需改為低熱量、高纖、易消化的配方。</t>
+  </si>
+  <si>
+    <t>老年寵物活動力變差怎麼辦？</t>
+  </si>
+  <si>
+    <t>適當運動可延緩退化，勿強迫，可使用輔助器具。</t>
+  </si>
+  <si>
+    <t>要做哪些健康檢查？</t>
+  </si>
+  <si>
+    <t>建議半年一次血檢、心臟、腎功能與牙科評估。</t>
+  </si>
+  <si>
+    <t>寵物出現失禁怎麼辦？</t>
+  </si>
+  <si>
+    <t>鋪吸水墊、調整飲食、就醫檢查是否泌尿問題。</t>
+  </si>
+  <si>
+    <t>老狗/貓睡很多正常嗎？</t>
+  </si>
+  <si>
+    <t>正常，但若嗜睡或不願互動，應檢查是否身體不適。</t>
+  </si>
+  <si>
+    <t>關節退化怎麼處理？</t>
+  </si>
+  <si>
+    <t>使用關節保健品、保暖床墊、減少跳高或爬樓梯。</t>
+  </si>
+  <si>
+    <t>老年寵物容易焦慮嗎？</t>
+  </si>
+  <si>
+    <t>是。建立規律作息與陪伴，有助減緩焦慮與退化。</t>
+  </si>
+  <si>
+    <t>寵物會有老年癡呆嗎？</t>
+  </si>
+  <si>
+    <t>有可能，表現為迷路、亂叫、日夜顛倒等，應就醫評估。</t>
+  </si>
+  <si>
+    <t>如何讓寵物善終？</t>
+  </si>
+  <si>
+    <t>提供尊嚴、舒適與陪伴，必要時考慮安寧照護或安樂選項。</t>
+  </si>
+  <si>
+    <t>寵物誤食異物怎麼辦？</t>
+  </si>
+  <si>
+    <t>切勿催吐，立即就醫。誤食物品可能卡住腸道或中毒。</t>
+  </si>
+  <si>
+    <t>怎麼處理寵物嘔吐？</t>
+  </si>
+  <si>
+    <t>偶爾可觀察禁食6小時，若頻繁或伴隨血液、無力應就醫。</t>
+  </si>
+  <si>
+    <t>寵物中毒怎麼急救？</t>
+  </si>
+  <si>
+    <t>記下毒物種類，勿自行催吐，立即送醫處理。</t>
+  </si>
+  <si>
+    <t>狗狗咬人怎麼辦？</t>
+  </si>
+  <si>
+    <t>立即隔離與清潔傷口，聯絡獸醫與當地動保機構處理。</t>
+  </si>
+  <si>
+    <t>寵物走失怎麼辦？</t>
+  </si>
+  <si>
+    <t>通報動保處、動物醫院、張貼協尋、發社群與寵物平台。</t>
+  </si>
+  <si>
+    <t>突然行為異常怎麼辦？</t>
+  </si>
+  <si>
+    <t>可能是疼痛、疾病或驚嚇，應儘快評估與就醫。</t>
+  </si>
+  <si>
+    <t>發情期要注意什麼？</t>
+  </si>
+  <si>
+    <t>情緒起伏大、亂尿、嚎叫，若不繁殖建議結紮。</t>
+  </si>
+  <si>
+    <t>飼主生病住院，寵物怎麼辦？</t>
+  </si>
+  <si>
+    <t>可托親友或專業寵物旅館照顧，避免臨時無人照料。</t>
+  </si>
+  <si>
+    <t>遇到自然災害怎麼辦？</t>
+  </si>
+  <si>
+    <t>準備緊急避難包：飼料、水、藥物、繩帶、疫苗紀錄等。</t>
+  </si>
+  <si>
+    <t>飼養寵物最重要的是什麼？</t>
+  </si>
+  <si>
+    <t>長期承諾、愛與耐心，讓牠成為你家庭的一份子。</t>
   </si>
 </sst>
 </file>
@@ -1110,92 +1230,156 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF99D1-DB70-4647-BADC-D5F8C4D9F1BE}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="4" max="4" width="69.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
       <c r="C10" t="s">
         <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +2186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC993D7-B4F2-4EDB-AB2B-F30ECFC47A91}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2318,92 +2502,156 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F869C3A-7135-4A4F-AF77-2933FEA8395D}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
       <c r="C10" t="s">
         <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/寵物照護QA.xlsx
+++ b/寵物照護QA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29128"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DA4B9A-EA21-40B2-92F6-E44D52EAF3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4287423-DBCC-4327-B900-1C19990020A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="飼養前的準備" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="旅遊與外出" sheetId="8" r:id="rId8"/>
     <sheet name="老年寵物照護" sheetId="9" r:id="rId9"/>
     <sheet name="特殊情況應對（走失、中毒、交配等）" sheetId="10" r:id="rId10"/>
+    <sheet name="進階飼養知識" sheetId="11" r:id="rId11"/>
+    <sheet name="繁殖與成長知識" sheetId="12" r:id="rId12"/>
+    <sheet name=" 寵物心理與情緒" sheetId="13" r:id="rId13"/>
+    <sheet name=" 醫療與保健補充" sheetId="14" r:id="rId14"/>
+    <sheet name="社群與紀錄" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="320">
   <si>
     <t>Q1</t>
   </si>
@@ -580,6 +585,426 @@
   </si>
   <si>
     <t>若有晶片與項圈能協助尋回，應立即通報動保機構與張貼協尋。</t>
+  </si>
+  <si>
+    <t>寵物幾歲算老？</t>
+  </si>
+  <si>
+    <t>狗狗7歲、貓咪10歲以上視為老年期。</t>
+  </si>
+  <si>
+    <t>老年寵物食物需要更換嗎？</t>
+  </si>
+  <si>
+    <t>是，需改為低熱量、高纖、易消化的配方。</t>
+  </si>
+  <si>
+    <t>老年寵物活動力變差怎麼辦？</t>
+  </si>
+  <si>
+    <t>適當運動可延緩退化，勿強迫，可使用輔助器具。</t>
+  </si>
+  <si>
+    <t>要做哪些健康檢查？</t>
+  </si>
+  <si>
+    <t>建議半年一次血檢、心臟、腎功能與牙科評估。</t>
+  </si>
+  <si>
+    <t>寵物出現失禁怎麼辦？</t>
+  </si>
+  <si>
+    <t>鋪吸水墊、調整飲食、就醫檢查是否泌尿問題。</t>
+  </si>
+  <si>
+    <t>老狗/貓睡很多正常嗎？</t>
+  </si>
+  <si>
+    <t>正常，但若嗜睡或不願互動，應檢查是否身體不適。</t>
+  </si>
+  <si>
+    <t>關節退化怎麼處理？</t>
+  </si>
+  <si>
+    <t>使用關節保健品、保暖床墊、減少跳高或爬樓梯。</t>
+  </si>
+  <si>
+    <t>老年寵物容易焦慮嗎？</t>
+  </si>
+  <si>
+    <t>是。建立規律作息與陪伴，有助減緩焦慮與退化。</t>
+  </si>
+  <si>
+    <t>寵物會有老年癡呆嗎？</t>
+  </si>
+  <si>
+    <t>有可能，表現為迷路、亂叫、日夜顛倒等，應就醫評估。</t>
+  </si>
+  <si>
+    <t>如何讓寵物善終？</t>
+  </si>
+  <si>
+    <t>提供尊嚴、舒適與陪伴，必要時考慮安寧照護或安樂選項。</t>
+  </si>
+  <si>
+    <t>寵物誤食異物怎麼辦？</t>
+  </si>
+  <si>
+    <t>切勿催吐，立即就醫。誤食物品可能卡住腸道或中毒。</t>
+  </si>
+  <si>
+    <t>怎麼處理寵物嘔吐？</t>
+  </si>
+  <si>
+    <t>偶爾可觀察禁食6小時，若頻繁或伴隨血液、無力應就醫。</t>
+  </si>
+  <si>
+    <t>寵物中毒怎麼急救？</t>
+  </si>
+  <si>
+    <t>記下毒物種類，勿自行催吐，立即送醫處理。</t>
+  </si>
+  <si>
+    <t>狗狗咬人怎麼辦？</t>
+  </si>
+  <si>
+    <t>立即隔離與清潔傷口，聯絡獸醫與當地動保機構處理。</t>
+  </si>
+  <si>
+    <t>寵物走失怎麼辦？</t>
+  </si>
+  <si>
+    <t>通報動保處、動物醫院、張貼協尋、發社群與寵物平台。</t>
+  </si>
+  <si>
+    <t>突然行為異常怎麼辦？</t>
+  </si>
+  <si>
+    <t>可能是疼痛、疾病或驚嚇，應儘快評估與就醫。</t>
+  </si>
+  <si>
+    <t>發情期要注意什麼？</t>
+  </si>
+  <si>
+    <t>情緒起伏大、亂尿、嚎叫，若不繁殖建議結紮。</t>
+  </si>
+  <si>
+    <t>飼主生病住院，寵物怎麼辦？</t>
+  </si>
+  <si>
+    <t>可托親友或專業寵物旅館照顧，避免臨時無人照料。</t>
+  </si>
+  <si>
+    <t>遇到自然災害怎麼辦？</t>
+  </si>
+  <si>
+    <t>準備緊急避難包：飼料、水、藥物、繩帶、疫苗紀錄等。</t>
+  </si>
+  <si>
+    <t>飼養寵物最重要的是什麼？</t>
+  </si>
+  <si>
+    <t>長期承諾、愛與耐心，讓牠成為你家庭的一份子。</t>
+  </si>
+  <si>
+    <t>狗狗會認主人嗎？</t>
+  </si>
+  <si>
+    <t>會。狗狗有認知能力與記憶，能辨識主人的氣味、聲音與臉孔。</t>
+  </si>
+  <si>
+    <t>飼養第二隻狗會比較好嗎？</t>
+  </si>
+  <si>
+    <t>需視原本狗狗個性與飼主照顧能力，避免因競爭反而壓力更大。</t>
+  </si>
+  <si>
+    <t>為什麼貓咪會磨爪？</t>
+  </si>
+  <si>
+    <t>是本能行為，為了去除老化爪殼與標記地盤。</t>
+  </si>
+  <si>
+    <t>狗狗有色盲嗎？</t>
+  </si>
+  <si>
+    <t>狗狗視覺有限，能分辨藍與黃色，但紅綠色較難辨識。</t>
+  </si>
+  <si>
+    <t>怎麼區分公母寵物？</t>
+  </si>
+  <si>
+    <t>狗貓生殖器官在幼年即可辨別，獸醫也可協助判定。</t>
+  </si>
+  <si>
+    <t>貓咪會記仇嗎？</t>
+  </si>
+  <si>
+    <t>不會「記仇」，但會記得不愉快經驗並避免再接近。</t>
+  </si>
+  <si>
+    <t>寵物需要刷毛嗎？</t>
+  </si>
+  <si>
+    <t>是。可去除死毛、促進血液循環，尤其長毛品種需天天梳理。</t>
+  </si>
+  <si>
+    <t>寵物會作夢嗎？</t>
+  </si>
+  <si>
+    <t>是。研究顯示動物在睡眠中也會有REM期，會抽動四肢或發出聲音。</t>
+  </si>
+  <si>
+    <t>如何幫寵物拍照？</t>
+  </si>
+  <si>
+    <t>用自然光、低角度拍攝並吸引注意力；可用聲音或點心誘導。</t>
+  </si>
+  <si>
+    <t>寵物會認路回家嗎？</t>
+  </si>
+  <si>
+    <t>有些狗貓有方向感，但不可靠，仍應避免走失風險。</t>
+  </si>
+  <si>
+    <t>狗狗幾歲性成熟？</t>
+  </si>
+  <si>
+    <t>一般6–12個月，依品種體型不同略有差異。</t>
+  </si>
+  <si>
+    <t>發情期持續多久？</t>
+  </si>
+  <si>
+    <t>母狗約2–3週，貓則約7天左右。</t>
+  </si>
+  <si>
+    <t>怎麼知道母狗懷孕了？</t>
+  </si>
+  <si>
+    <t>胃部變大、乳頭變色、活動力下降，建議照超音波確認。</t>
+  </si>
+  <si>
+    <t>寵物懷孕需要補充營養嗎？</t>
+  </si>
+  <si>
+    <t>是，需增加蛋白質與熱量，請獸醫建議適當配方。</t>
+  </si>
+  <si>
+    <t>狗貓一次生幾隻？</t>
+  </si>
+  <si>
+    <t>看品種大小，狗約4–10隻，貓約3–6隻。</t>
+  </si>
+  <si>
+    <t>小狗幾週可以吃副食品</t>
+  </si>
+  <si>
+    <t>約3–4週開始離乳，可吃濕軟的幼犬飼料。</t>
+  </si>
+  <si>
+    <t>貓咪會照顧小貓嗎？</t>
+  </si>
+  <si>
+    <t>會，母貓具有強烈護子本能，建議不要過度打擾。</t>
+  </si>
+  <si>
+    <t>小狗幾個月可離乳？</t>
+  </si>
+  <si>
+    <t>通常在6–8週左右完成斷奶。</t>
+  </si>
+  <si>
+    <t>要幫寵物登記出生資訊嗎？</t>
+  </si>
+  <si>
+    <t>若參加比賽或育種，血統登記需提交出生證明。</t>
+  </si>
+  <si>
+    <t>什麼是基因遺傳病？</t>
+  </si>
+  <si>
+    <t>特定品種易攜帶疾病基因，如髖關節異常、視網膜萎縮等。</t>
+  </si>
+  <si>
+    <t>寵物會吃醋嗎？</t>
+  </si>
+  <si>
+    <t>會有類似情緒，當注意力分散時會出現行為改變。</t>
+  </si>
+  <si>
+    <t>怎麼看出寵物開心？</t>
+  </si>
+  <si>
+    <t>尾巴搖擺、靠近你、主動玩耍與呼嚕聲（貓）。</t>
+  </si>
+  <si>
+    <t>寵物會憂鬱嗎？</t>
+  </si>
+  <si>
+    <t>長期孤單或改變環境會讓寵物表現冷淡、食慾下降。</t>
+  </si>
+  <si>
+    <t>如何陪伴老年寵物？</t>
+  </si>
+  <si>
+    <t>每天與牠互動、輕柔按摩與話語交流，可讓牠安心。</t>
+  </si>
+  <si>
+    <t>怎麼緩解分離焦慮？</t>
+  </si>
+  <si>
+    <t>使用陪伴玩具、建立獨處時間、逐漸延長離開時間。</t>
+  </si>
+  <si>
+    <t>寵物為什麼會亂大小便？</t>
+  </si>
+  <si>
+    <t>可能是壓力、健康問題或訓練不完全所致。</t>
+  </si>
+  <si>
+    <t>寵物會感到被忽略嗎？</t>
+  </si>
+  <si>
+    <t>會。長時間無互動可能導致情緒行為問題。</t>
+  </si>
+  <si>
+    <t>怎麼安撫害怕的狗？</t>
+  </si>
+  <si>
+    <t>低聲安撫、避免擁抱強壓、可使用抗焦慮噴劑或外套。</t>
+  </si>
+  <si>
+    <t>打雷時寵物躲起來正常嗎</t>
+  </si>
+  <si>
+    <t>是正常壓力反應，可提供安全空間讓牠藏匿。</t>
+  </si>
+  <si>
+    <t>寵物認得自己的名字嗎？</t>
+  </si>
+  <si>
+    <t>經常呼喚與獎勵能讓牠辨認並回應名字。</t>
+  </si>
+  <si>
+    <t>寵物會蛀牙嗎？</t>
+  </si>
+  <si>
+    <t>狗貓也會牙結石與牙周病，需定期潔牙。</t>
+  </si>
+  <si>
+    <t>如何幫寵物刷牙？</t>
+  </si>
+  <si>
+    <t>使用寵物牙膏與專用牙刷，一週至少2次。</t>
+  </si>
+  <si>
+    <t>寵物流口水是生病嗎？</t>
+  </si>
+  <si>
+    <t>若頻繁、黏稠，可能為口腔問題或中毒徵兆。</t>
+  </si>
+  <si>
+    <t>寵物貧血有哪些症狀？</t>
+  </si>
+  <si>
+    <t>虛弱、黏膜蒼白、食慾不佳，需抽血檢查。</t>
+  </si>
+  <si>
+    <t>可以給寵物保健食品嗎？</t>
+  </si>
+  <si>
+    <t>可以，但須選擇適合種類與依建議劑量使用。</t>
+  </si>
+  <si>
+    <t>寵物生病該看哪科？</t>
+  </si>
+  <si>
+    <t>多數為「小動物內科」，特殊科如眼科、皮膚科可進一步轉診。</t>
+  </si>
+  <si>
+    <t>疫苗打了還會得病嗎？</t>
+  </si>
+  <si>
+    <t>仍有極小機率感染，但症狀較輕，保護力仍高。</t>
+  </si>
+  <si>
+    <t>寵物需要輸血嗎？</t>
+  </si>
+  <si>
+    <t>有些重病或外傷時確實需輸血，獸醫會做交叉配對。</t>
+  </si>
+  <si>
+    <t>醫療費太貴怎麼辦？</t>
+  </si>
+  <si>
+    <t>可考慮投保寵物保險，平時定期檢查預防重症。</t>
+  </si>
+  <si>
+    <t>寵物能做復健嗎？</t>
+  </si>
+  <si>
+    <t>有。如水療、磁療、關節伸展可改善術後或老年問題。</t>
+  </si>
+  <si>
+    <t>如何幫寵物做紀錄？</t>
+  </si>
+  <si>
+    <t>可用APP記錄疫苗、醫療、體重與飲食。</t>
+  </si>
+  <si>
+    <t>寵物可以上IG/TikTok嗎？</t>
+  </si>
+  <si>
+    <t>當然可以，許多毛孩都有自己的帳號與粉絲。</t>
+  </si>
+  <si>
+    <t>寵物寫真需要專業拍嗎？</t>
+  </si>
+  <si>
+    <t>可找寵物攝影師或使用手機搭配道具、背景拍攝。</t>
+  </si>
+  <si>
+    <t>可以幫寵物穿衣服嗎？</t>
+  </si>
+  <si>
+    <t>若天氣寒冷或皮膚保護需要，可適度穿著。</t>
+  </si>
+  <si>
+    <t>怎麼做寵物成長相簿？</t>
+  </si>
+  <si>
+    <t>每月拍攝1張，記錄從幼年到成年的變化。</t>
+  </si>
+  <si>
+    <t>有寵物專屬的社交平台嗎？</t>
+  </si>
+  <si>
+    <t>有，如Petpetgo、毛起來愛、Wag等。</t>
+  </si>
+  <si>
+    <t>怎麼辦寵物生日派對？</t>
+  </si>
+  <si>
+    <t>預約寵物友善空間、製作蛋糕、準備服飾與禮物。</t>
+  </si>
+  <si>
+    <t>可以幫寵物取綽號嗎？</t>
+  </si>
+  <si>
+    <t>當然可以，牠們會記住你給予的稱呼與語調。</t>
+  </si>
+  <si>
+    <t>寵物會喜歡照鏡子嗎？</t>
+  </si>
+  <si>
+    <t>多數不會認出自己，但有些會出現好奇或敵意。</t>
+  </si>
+  <si>
+    <t>寵物紀錄資料要備份嗎？</t>
+  </si>
+  <si>
+    <t>建議雲端備份，以防遺失重要健康與身分資料。</t>
   </si>
 </sst>
 </file>
@@ -1110,92 +1535,952 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF99D1-DB70-4647-BADC-D5F8C4D9F1BE}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="4" max="4" width="69.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
       <c r="C10" t="s">
         <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DA7308-013B-421E-A64B-465486ED07CB}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="51.625" customWidth="1"/>
+    <col min="4" max="4" width="67.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A3B312-0DB8-4414-9879-6342BE992E27}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2B2787-66B9-4D39-8D94-E6047BC5BA3C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.875" customWidth="1"/>
+    <col min="4" max="4" width="66.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8423BF09-87E9-4970-93EC-3DF86ABF7B15}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="4" max="4" width="63.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067952E-C4D3-48EC-9BBE-1BC9550FB559}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="63.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="84.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +3287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC993D7-B4F2-4EDB-AB2B-F30ECFC47A91}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2318,92 +3603,156 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F869C3A-7135-4A4F-AF77-2933FEA8395D}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
       <c r="C10" t="s">
         <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/寵物照護QA.xlsx
+++ b/寵物照護QA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29203"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECAA1C4-0693-4B12-8F8A-453CEAE235AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A495A1E0-0C1A-421A-8906-D3801DF86E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="飼養前的準備" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="旅遊與外出" sheetId="8" r:id="rId8"/>
     <sheet name="老年寵物照護" sheetId="9" r:id="rId9"/>
     <sheet name="特殊情況應對（走失、中毒、交配等）" sheetId="10" r:id="rId10"/>
+    <sheet name="進階飼養知識" sheetId="11" r:id="rId11"/>
+    <sheet name="繁殖與成長知識" sheetId="12" r:id="rId12"/>
+    <sheet name=" 寵物心理與情緒" sheetId="13" r:id="rId13"/>
+    <sheet name=" 醫療與保健補充" sheetId="14" r:id="rId14"/>
+    <sheet name="社群與紀錄" sheetId="15" r:id="rId15"/>
+    <sheet name="寵物居家急救與緊急應變" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="340">
   <si>
     <t>Q1</t>
   </si>
@@ -700,6 +706,366 @@
   </si>
   <si>
     <t>長期承諾、愛與耐心，讓牠成為你家庭的一份子。</t>
+  </si>
+  <si>
+    <t>狗狗會認主人嗎？</t>
+  </si>
+  <si>
+    <t>會。狗狗有認知能力與記憶，能辨識主人的氣味、聲音與臉孔。</t>
+  </si>
+  <si>
+    <t>飼養第二隻狗會比較好嗎？</t>
+  </si>
+  <si>
+    <t>需視原本狗狗個性與飼主照顧能力，避免因競爭反而壓力更大。</t>
+  </si>
+  <si>
+    <t>為什麼貓咪會磨爪？</t>
+  </si>
+  <si>
+    <t>是本能行為，為了去除老化爪殼與標記地盤。</t>
+  </si>
+  <si>
+    <t>狗狗有色盲嗎？</t>
+  </si>
+  <si>
+    <t>狗狗視覺有限，能分辨藍與黃色，但紅綠色較難辨識。</t>
+  </si>
+  <si>
+    <t>怎麼區分公母寵物？</t>
+  </si>
+  <si>
+    <t>狗貓生殖器官在幼年即可辨別，獸醫也可協助判定。</t>
+  </si>
+  <si>
+    <t>貓咪會記仇嗎？</t>
+  </si>
+  <si>
+    <t>不會「記仇」，但會記得不愉快經驗並避免再接近。</t>
+  </si>
+  <si>
+    <t>寵物需要刷毛嗎？</t>
+  </si>
+  <si>
+    <t>是。可去除死毛、促進血液循環，尤其長毛品種需天天梳理。</t>
+  </si>
+  <si>
+    <t>寵物會作夢嗎？</t>
+  </si>
+  <si>
+    <t>是。研究顯示動物在睡眠中也會有REM期，會抽動四肢或發出聲音。</t>
+  </si>
+  <si>
+    <t>如何幫寵物拍照？</t>
+  </si>
+  <si>
+    <t>用自然光、低角度拍攝並吸引注意力；可用聲音或點心誘導。</t>
+  </si>
+  <si>
+    <t>寵物會認路回家嗎？</t>
+  </si>
+  <si>
+    <t>有些狗貓有方向感，但不可靠，仍應避免走失風險。</t>
+  </si>
+  <si>
+    <t>狗狗幾歲性成熟？</t>
+  </si>
+  <si>
+    <t>一般6–12個月，依品種體型不同略有差異。</t>
+  </si>
+  <si>
+    <t>發情期持續多久？</t>
+  </si>
+  <si>
+    <t>母狗約2–3週，貓則約7天左右。</t>
+  </si>
+  <si>
+    <t>怎麼知道母狗懷孕了？</t>
+  </si>
+  <si>
+    <t>胃部變大、乳頭變色、活動力下降，建議照超音波確認。</t>
+  </si>
+  <si>
+    <t>寵物懷孕需要補充營養嗎？</t>
+  </si>
+  <si>
+    <t>是，需增加蛋白質與熱量，請獸醫建議適當配方。</t>
+  </si>
+  <si>
+    <t>狗貓一次生幾隻？</t>
+  </si>
+  <si>
+    <t>看品種大小，狗約4–10隻，貓約3–6隻。</t>
+  </si>
+  <si>
+    <t>小狗幾週可以吃副食品</t>
+  </si>
+  <si>
+    <t>約3–4週開始離乳，可吃濕軟的幼犬飼料。</t>
+  </si>
+  <si>
+    <t>貓咪會照顧小貓嗎？</t>
+  </si>
+  <si>
+    <t>會，母貓具有強烈護子本能，建議不要過度打擾。</t>
+  </si>
+  <si>
+    <t>小狗幾個月可離乳？</t>
+  </si>
+  <si>
+    <t>通常在6–8週左右完成斷奶。</t>
+  </si>
+  <si>
+    <t>要幫寵物登記出生資訊嗎？</t>
+  </si>
+  <si>
+    <t>若參加比賽或育種，血統登記需提交出生證明。</t>
+  </si>
+  <si>
+    <t>什麼是基因遺傳病？</t>
+  </si>
+  <si>
+    <t>特定品種易攜帶疾病基因，如髖關節異常、視網膜萎縮等。</t>
+  </si>
+  <si>
+    <t>寵物會吃醋嗎？</t>
+  </si>
+  <si>
+    <t>會有類似情緒，當注意力分散時會出現行為改變。</t>
+  </si>
+  <si>
+    <t>怎麼看出寵物開心？</t>
+  </si>
+  <si>
+    <t>尾巴搖擺、靠近你、主動玩耍與呼嚕聲（貓）。</t>
+  </si>
+  <si>
+    <t>寵物會憂鬱嗎？</t>
+  </si>
+  <si>
+    <t>長期孤單或改變環境會讓寵物表現冷淡、食慾下降。</t>
+  </si>
+  <si>
+    <t>如何陪伴老年寵物？</t>
+  </si>
+  <si>
+    <t>每天與牠互動、輕柔按摩與話語交流，可讓牠安心。</t>
+  </si>
+  <si>
+    <t>怎麼緩解分離焦慮？</t>
+  </si>
+  <si>
+    <t>使用陪伴玩具、建立獨處時間、逐漸延長離開時間。</t>
+  </si>
+  <si>
+    <t>寵物為什麼會亂大小便？</t>
+  </si>
+  <si>
+    <t>可能是壓力、健康問題或訓練不完全所致。</t>
+  </si>
+  <si>
+    <t>寵物會感到被忽略嗎？</t>
+  </si>
+  <si>
+    <t>會。長時間無互動可能導致情緒行為問題。</t>
+  </si>
+  <si>
+    <t>怎麼安撫害怕的狗？</t>
+  </si>
+  <si>
+    <t>低聲安撫、避免擁抱強壓、可使用抗焦慮噴劑或外套。</t>
+  </si>
+  <si>
+    <t>打雷時寵物躲起來正常嗎</t>
+  </si>
+  <si>
+    <t>是正常壓力反應，可提供安全空間讓牠藏匿。</t>
+  </si>
+  <si>
+    <t>寵物認得自己的名字嗎？</t>
+  </si>
+  <si>
+    <t>經常呼喚與獎勵能讓牠辨認並回應名字。</t>
+  </si>
+  <si>
+    <t>寵物會蛀牙嗎？</t>
+  </si>
+  <si>
+    <t>狗貓也會牙結石與牙周病，需定期潔牙。</t>
+  </si>
+  <si>
+    <t>如何幫寵物刷牙？</t>
+  </si>
+  <si>
+    <t>使用寵物牙膏與專用牙刷，一週至少2次。</t>
+  </si>
+  <si>
+    <t>寵物流口水是生病嗎？</t>
+  </si>
+  <si>
+    <t>若頻繁、黏稠，可能為口腔問題或中毒徵兆。</t>
+  </si>
+  <si>
+    <t>寵物貧血有哪些症狀？</t>
+  </si>
+  <si>
+    <t>虛弱、黏膜蒼白、食慾不佳，需抽血檢查。</t>
+  </si>
+  <si>
+    <t>可以給寵物保健食品嗎？</t>
+  </si>
+  <si>
+    <t>可以，但須選擇適合種類與依建議劑量使用。</t>
+  </si>
+  <si>
+    <t>寵物生病該看哪科？</t>
+  </si>
+  <si>
+    <t>多數為「小動物內科」，特殊科如眼科、皮膚科可進一步轉診。</t>
+  </si>
+  <si>
+    <t>疫苗打了還會得病嗎？</t>
+  </si>
+  <si>
+    <t>仍有極小機率感染，但症狀較輕，保護力仍高。</t>
+  </si>
+  <si>
+    <t>寵物需要輸血嗎？</t>
+  </si>
+  <si>
+    <t>有些重病或外傷時確實需輸血，獸醫會做交叉配對。</t>
+  </si>
+  <si>
+    <t>醫療費太貴怎麼辦？</t>
+  </si>
+  <si>
+    <t>可考慮投保寵物保險，平時定期檢查預防重症。</t>
+  </si>
+  <si>
+    <t>寵物能做復健嗎？</t>
+  </si>
+  <si>
+    <t>有。如水療、磁療、關節伸展可改善術後或老年問題。</t>
+  </si>
+  <si>
+    <t>如何幫寵物做紀錄？</t>
+  </si>
+  <si>
+    <t>可用APP記錄疫苗、醫療、體重與飲食。</t>
+  </si>
+  <si>
+    <t>寵物可以上IG/TikTok嗎？</t>
+  </si>
+  <si>
+    <t>當然可以，許多毛孩都有自己的帳號與粉絲。</t>
+  </si>
+  <si>
+    <t>寵物寫真需要專業拍嗎？</t>
+  </si>
+  <si>
+    <t>可找寵物攝影師或使用手機搭配道具、背景拍攝。</t>
+  </si>
+  <si>
+    <t>可以幫寵物穿衣服嗎？</t>
+  </si>
+  <si>
+    <t>若天氣寒冷或皮膚保護需要，可適度穿著。</t>
+  </si>
+  <si>
+    <t>怎麼做寵物成長相簿？</t>
+  </si>
+  <si>
+    <t>每月拍攝1張，記錄從幼年到成年的變化。</t>
+  </si>
+  <si>
+    <t>有寵物專屬的社交平台嗎？</t>
+  </si>
+  <si>
+    <t>有，如Petpetgo、毛起來愛、Wag等。</t>
+  </si>
+  <si>
+    <t>怎麼辦寵物生日派對？</t>
+  </si>
+  <si>
+    <t>預約寵物友善空間、製作蛋糕、準備服飾與禮物。</t>
+  </si>
+  <si>
+    <t>可以幫寵物取綽號嗎？</t>
+  </si>
+  <si>
+    <t>當然可以，牠們會記住你給予的稱呼與語調。</t>
+  </si>
+  <si>
+    <t>寵物會喜歡照鏡子嗎？</t>
+  </si>
+  <si>
+    <t>多數不會認出自己，但有些會出現好奇或敵意。</t>
+  </si>
+  <si>
+    <t>寵物紀錄資料要備份嗎？</t>
+  </si>
+  <si>
+    <t>建議雲端備份，以防遺失重要健康與身分資料。</t>
+  </si>
+  <si>
+    <t>怎麼判斷是不是緊急？</t>
+  </si>
+  <si>
+    <t>可先檢查寵物是否意識清楚、呼吸順暢、心跳正常，並觀察牙齦顏色與毛細血管回填時間（按壓牙齦放開後應在 2 秒內恢復粉紅）。任何出現呼吸困難、持續抽搐、昏迷、大量出血、疑似中毒、高燒或體溫過低、突然無法站立等情況，都屬於緊急狀況，需立即送往動物醫院，同時在運送途中盡可能保持呼吸道暢通與體溫穩定。</t>
+  </si>
+  <si>
+    <t>寵物噎到怎麼辦？</t>
+  </si>
+  <si>
+    <t>若寵物仍能咳嗽或發出聲音，應保持鎮定並鼓勵牠自行排出異物，不要隨意伸手進嘴巴掏取；若完全無法呼吸、發聲且牙齦變紫，表示是完全阻塞，此時需立刻進行急救，例如小型犬貓可抱起頭朝下拍背、胸腔擠壓，大型犬可採立姿或側躺進行腹部擠壓（哈姆立克法），並在每次動作後檢查口腔是否可見異物，同時盡快送醫。</t>
+  </si>
+  <si>
+    <t>怎麼對犬貓做 CPR？</t>
+  </si>
+  <si>
+    <t>當寵物沒有呼吸且摸不到脈搏時，需立刻進行 CPR。將寵物側躺，雙手置於胸腔最寬處垂直下壓，頻率為每分鐘 100–120 次，深度約為胸腔寬度的 1/3–1/2；按壓 30 次後進行 2 次人工呼吸（口對鼻吹氣，胸廓輕微抬起為宜），並持續循環直到恢復心跳或交由獸醫處理。施救過程中需避免過度吹氣導致胃脹氣，並盡可能保持按壓不中斷。</t>
+  </si>
+  <si>
+    <t>中暑有哪些徵兆與應對方法？</t>
+  </si>
+  <si>
+    <t>寵物中暑常見症狀包括喘促不止、流口水、步態不穩、嘔吐腹瀉、牙齦鮮紅或發白、虛弱甚至昏迷。發現疑似中暑時，應立即將牠移至陰涼通風處，卸下項圈和口罩，使用溫涼水（非冰水）打濕腹股溝、腋下與腳墊，並用電扇輔助降溫，當體溫降至約 39.5°C 即停止主動降溫以避免低溫過度，能吞嚥的情況下可少量飲水，並立即送醫檢查。</t>
+  </si>
+  <si>
+    <t>遇到癲癇發作怎麼辦？</t>
+  </si>
+  <si>
+    <t>發作時不要將手或物品放入口中，避免咬傷或造成更多損害，應將周圍尖銳物移開並保持環境安靜，讓寵物躺在安全的平面並在頭下墊軟布，持續觀察並計時，若發作超過 5 分鐘或短時間內重複發作，屬於危急狀況，需立即送醫；發作停止後讓牠安靜休息並保暖，並記錄過程（影片或描述）供獸醫診斷。</t>
+  </si>
+  <si>
+    <t>寵物大出血時怎麼止血？</t>
+  </si>
+  <si>
+    <t>應立即以乾淨紗布或布料直接壓迫出血處 3–5 分鐘，期間不要掀開檢查，以免影響凝血，若血液滲出應在外層加疊新的紗布持續加壓，必要時用棉墊和彈性繃帶固定並確保末端肢體不因包紮過緊而變紫或冰冷；若出血量大且來自動脈，且無法以壓迫控制，可在上方使用止血帶暫時止血，每 2–3 分鐘稍微放鬆一次，並儘快送醫。</t>
+  </si>
+  <si>
+    <t>寵物中毒時該怎麼辦？</t>
+  </si>
+  <si>
+    <t>先將寵物移離毒源並確保牠安全，保留可能的毒物包裝、殘留物或植物樣本，記下攝入時間與大約的量，並立即聯絡獸醫；在未經獸醫指示下不要自行催吐，尤其是腐蝕性物質、昏迷或抽搐的情況下更危險。運送途中應保持安靜、避免奔跑以減少毒物吸收，並將毒物資訊完整告知獸醫以利處理。</t>
+  </si>
+  <si>
+    <t>骨折或脫臼怎麼處理？</t>
+  </si>
+  <si>
+    <t>不要自行復位，應盡量限制受傷部位的活動，可用毛巾或布條將患肢靠近身體固定，或使用硬板作為臨時夾板固定上下關節，避免進一步移動造成二次傷害；若同時有出血，先止血再固定，並在運送過程中減少顛簸，盡快送醫做 X 光檢查與治療。</t>
+  </si>
+  <si>
+    <t>燒燙傷該如何急救？</t>
+  </si>
+  <si>
+    <t>熱燙傷應立即用 15–25°C 的涼水沖洗傷口 10–15 分鐘以降溫，但不要使用冰塊；化學灼傷需大量清水沖洗至少 15 分鐘並避免觸碰傷口周邊；電灼傷要先切斷電源再接近寵物，以免自己觸電。任何燒燙傷都不要塗抹牙膏、油膏等物質，應保持傷口清潔覆蓋並立即送醫，以防感染與評估深度。</t>
+  </si>
+  <si>
+    <t>眼睛受傷時怎麼辦？</t>
+  </si>
+  <si>
+    <t>眼睛受傷時不要直接用手拔除異物，可用生理食鹽水輕柔沖洗以去除表面灰塵，避免用力過大傷到角膜；應防止寵物用爪子抓眼睛，可戴上伊莉莎白頭套保護；若眼睛流血、腫脹、渾濁或眼球外突，應用乾淨紗布輕蓋保護並立即送醫，因為眼部損傷處理時效性非常關鍵，拖延可能造成永久失明。</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF99D1-DB70-4647-BADC-D5F8C4D9F1BE}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1380,6 +1746,961 @@
       </c>
       <c r="D10" t="s">
         <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DA7308-013B-421E-A64B-465486ED07CB}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="51.625" customWidth="1"/>
+    <col min="4" max="4" width="67.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A3B312-0DB8-4414-9879-6342BE992E27}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2B2787-66B9-4D39-8D94-E6047BC5BA3C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.875" customWidth="1"/>
+    <col min="4" max="4" width="66.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8423BF09-87E9-4970-93EC-3DF86ABF7B15}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="4" max="4" width="63.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067952E-C4D3-48EC-9BBE-1BC9550FB559}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="63.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="84.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4616CA0-AF7E-4D46-810F-23C87472795C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="135.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/寵物照護QA.xlsx
+++ b/寵物照護QA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29203"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECAA1C4-0693-4B12-8F8A-453CEAE235AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76B3E51-24B9-43AE-A7A5-B6DAF8E6F36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="飼養前的準備" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,15 @@
     <sheet name="旅遊與外出" sheetId="8" r:id="rId8"/>
     <sheet name="老年寵物照護" sheetId="9" r:id="rId9"/>
     <sheet name="特殊情況應對（走失、中毒、交配等）" sheetId="10" r:id="rId10"/>
+    <sheet name="進階飼養知識" sheetId="11" r:id="rId11"/>
+    <sheet name="繁殖與成長知識" sheetId="12" r:id="rId12"/>
+    <sheet name=" 寵物心理與情緒" sheetId="13" r:id="rId13"/>
+    <sheet name=" 醫療與保健補充" sheetId="14" r:id="rId14"/>
+    <sheet name="社群與紀錄" sheetId="15" r:id="rId15"/>
+    <sheet name="寵物居家急救與緊急應變" sheetId="16" r:id="rId16"/>
+    <sheet name="寵物日常行為問題與改善方法" sheetId="17" r:id="rId17"/>
+    <sheet name="帶寵物出門與旅行注意事項" sheetId="18" r:id="rId18"/>
+    <sheet name="寵物健康檢查與保健" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="400">
   <si>
     <t>Q1</t>
   </si>
@@ -700,6 +709,546 @@
   </si>
   <si>
     <t>長期承諾、愛與耐心，讓牠成為你家庭的一份子。</t>
+  </si>
+  <si>
+    <t>狗狗會認主人嗎？</t>
+  </si>
+  <si>
+    <t>會。狗狗有認知能力與記憶，能辨識主人的氣味、聲音與臉孔。</t>
+  </si>
+  <si>
+    <t>飼養第二隻狗會比較好嗎？</t>
+  </si>
+  <si>
+    <t>需視原本狗狗個性與飼主照顧能力，避免因競爭反而壓力更大。</t>
+  </si>
+  <si>
+    <t>為什麼貓咪會磨爪？</t>
+  </si>
+  <si>
+    <t>是本能行為，為了去除老化爪殼與標記地盤。</t>
+  </si>
+  <si>
+    <t>狗狗有色盲嗎？</t>
+  </si>
+  <si>
+    <t>狗狗視覺有限，能分辨藍與黃色，但紅綠色較難辨識。</t>
+  </si>
+  <si>
+    <t>怎麼區分公母寵物？</t>
+  </si>
+  <si>
+    <t>狗貓生殖器官在幼年即可辨別，獸醫也可協助判定。</t>
+  </si>
+  <si>
+    <t>貓咪會記仇嗎？</t>
+  </si>
+  <si>
+    <t>不會「記仇」，但會記得不愉快經驗並避免再接近。</t>
+  </si>
+  <si>
+    <t>寵物需要刷毛嗎？</t>
+  </si>
+  <si>
+    <t>是。可去除死毛、促進血液循環，尤其長毛品種需天天梳理。</t>
+  </si>
+  <si>
+    <t>寵物會作夢嗎？</t>
+  </si>
+  <si>
+    <t>是。研究顯示動物在睡眠中也會有REM期，會抽動四肢或發出聲音。</t>
+  </si>
+  <si>
+    <t>如何幫寵物拍照？</t>
+  </si>
+  <si>
+    <t>用自然光、低角度拍攝並吸引注意力；可用聲音或點心誘導。</t>
+  </si>
+  <si>
+    <t>寵物會認路回家嗎？</t>
+  </si>
+  <si>
+    <t>有些狗貓有方向感，但不可靠，仍應避免走失風險。</t>
+  </si>
+  <si>
+    <t>狗狗幾歲性成熟？</t>
+  </si>
+  <si>
+    <t>一般6–12個月，依品種體型不同略有差異。</t>
+  </si>
+  <si>
+    <t>發情期持續多久？</t>
+  </si>
+  <si>
+    <t>母狗約2–3週，貓則約7天左右。</t>
+  </si>
+  <si>
+    <t>怎麼知道母狗懷孕了？</t>
+  </si>
+  <si>
+    <t>胃部變大、乳頭變色、活動力下降，建議照超音波確認。</t>
+  </si>
+  <si>
+    <t>寵物懷孕需要補充營養嗎？</t>
+  </si>
+  <si>
+    <t>是，需增加蛋白質與熱量，請獸醫建議適當配方。</t>
+  </si>
+  <si>
+    <t>狗貓一次生幾隻？</t>
+  </si>
+  <si>
+    <t>看品種大小，狗約4–10隻，貓約3–6隻。</t>
+  </si>
+  <si>
+    <t>小狗幾週可以吃副食品</t>
+  </si>
+  <si>
+    <t>約3–4週開始離乳，可吃濕軟的幼犬飼料。</t>
+  </si>
+  <si>
+    <t>貓咪會照顧小貓嗎？</t>
+  </si>
+  <si>
+    <t>會，母貓具有強烈護子本能，建議不要過度打擾。</t>
+  </si>
+  <si>
+    <t>小狗幾個月可離乳？</t>
+  </si>
+  <si>
+    <t>通常在6–8週左右完成斷奶。</t>
+  </si>
+  <si>
+    <t>要幫寵物登記出生資訊嗎？</t>
+  </si>
+  <si>
+    <t>若參加比賽或育種，血統登記需提交出生證明。</t>
+  </si>
+  <si>
+    <t>什麼是基因遺傳病？</t>
+  </si>
+  <si>
+    <t>特定品種易攜帶疾病基因，如髖關節異常、視網膜萎縮等。</t>
+  </si>
+  <si>
+    <t>寵物會吃醋嗎？</t>
+  </si>
+  <si>
+    <t>會有類似情緒，當注意力分散時會出現行為改變。</t>
+  </si>
+  <si>
+    <t>怎麼看出寵物開心？</t>
+  </si>
+  <si>
+    <t>尾巴搖擺、靠近你、主動玩耍與呼嚕聲（貓）。</t>
+  </si>
+  <si>
+    <t>寵物會憂鬱嗎？</t>
+  </si>
+  <si>
+    <t>長期孤單或改變環境會讓寵物表現冷淡、食慾下降。</t>
+  </si>
+  <si>
+    <t>如何陪伴老年寵物？</t>
+  </si>
+  <si>
+    <t>每天與牠互動、輕柔按摩與話語交流，可讓牠安心。</t>
+  </si>
+  <si>
+    <t>怎麼緩解分離焦慮？</t>
+  </si>
+  <si>
+    <t>使用陪伴玩具、建立獨處時間、逐漸延長離開時間。</t>
+  </si>
+  <si>
+    <t>寵物為什麼會亂大小便？</t>
+  </si>
+  <si>
+    <t>可能是壓力、健康問題或訓練不完全所致。</t>
+  </si>
+  <si>
+    <t>寵物會感到被忽略嗎？</t>
+  </si>
+  <si>
+    <t>會。長時間無互動可能導致情緒行為問題。</t>
+  </si>
+  <si>
+    <t>怎麼安撫害怕的狗？</t>
+  </si>
+  <si>
+    <t>低聲安撫、避免擁抱強壓、可使用抗焦慮噴劑或外套。</t>
+  </si>
+  <si>
+    <t>打雷時寵物躲起來正常嗎</t>
+  </si>
+  <si>
+    <t>是正常壓力反應，可提供安全空間讓牠藏匿。</t>
+  </si>
+  <si>
+    <t>寵物認得自己的名字嗎？</t>
+  </si>
+  <si>
+    <t>經常呼喚與獎勵能讓牠辨認並回應名字。</t>
+  </si>
+  <si>
+    <t>寵物會蛀牙嗎？</t>
+  </si>
+  <si>
+    <t>狗貓也會牙結石與牙周病，需定期潔牙。</t>
+  </si>
+  <si>
+    <t>如何幫寵物刷牙？</t>
+  </si>
+  <si>
+    <t>使用寵物牙膏與專用牙刷，一週至少2次。</t>
+  </si>
+  <si>
+    <t>寵物流口水是生病嗎？</t>
+  </si>
+  <si>
+    <t>若頻繁、黏稠，可能為口腔問題或中毒徵兆。</t>
+  </si>
+  <si>
+    <t>寵物貧血有哪些症狀？</t>
+  </si>
+  <si>
+    <t>虛弱、黏膜蒼白、食慾不佳，需抽血檢查。</t>
+  </si>
+  <si>
+    <t>可以給寵物保健食品嗎？</t>
+  </si>
+  <si>
+    <t>可以，但須選擇適合種類與依建議劑量使用。</t>
+  </si>
+  <si>
+    <t>寵物生病該看哪科？</t>
+  </si>
+  <si>
+    <t>多數為「小動物內科」，特殊科如眼科、皮膚科可進一步轉診。</t>
+  </si>
+  <si>
+    <t>疫苗打了還會得病嗎？</t>
+  </si>
+  <si>
+    <t>仍有極小機率感染，但症狀較輕，保護力仍高。</t>
+  </si>
+  <si>
+    <t>寵物需要輸血嗎？</t>
+  </si>
+  <si>
+    <t>有些重病或外傷時確實需輸血，獸醫會做交叉配對。</t>
+  </si>
+  <si>
+    <t>醫療費太貴怎麼辦？</t>
+  </si>
+  <si>
+    <t>可考慮投保寵物保險，平時定期檢查預防重症。</t>
+  </si>
+  <si>
+    <t>寵物能做復健嗎？</t>
+  </si>
+  <si>
+    <t>有。如水療、磁療、關節伸展可改善術後或老年問題。</t>
+  </si>
+  <si>
+    <t>如何幫寵物做紀錄？</t>
+  </si>
+  <si>
+    <t>可用APP記錄疫苗、醫療、體重與飲食。</t>
+  </si>
+  <si>
+    <t>寵物可以上IG/TikTok嗎？</t>
+  </si>
+  <si>
+    <t>當然可以，許多毛孩都有自己的帳號與粉絲。</t>
+  </si>
+  <si>
+    <t>寵物寫真需要專業拍嗎？</t>
+  </si>
+  <si>
+    <t>可找寵物攝影師或使用手機搭配道具、背景拍攝。</t>
+  </si>
+  <si>
+    <t>可以幫寵物穿衣服嗎？</t>
+  </si>
+  <si>
+    <t>若天氣寒冷或皮膚保護需要，可適度穿著。</t>
+  </si>
+  <si>
+    <t>怎麼做寵物成長相簿？</t>
+  </si>
+  <si>
+    <t>每月拍攝1張，記錄從幼年到成年的變化。</t>
+  </si>
+  <si>
+    <t>有寵物專屬的社交平台嗎？</t>
+  </si>
+  <si>
+    <t>有，如Petpetgo、毛起來愛、Wag等。</t>
+  </si>
+  <si>
+    <t>怎麼辦寵物生日派對？</t>
+  </si>
+  <si>
+    <t>預約寵物友善空間、製作蛋糕、準備服飾與禮物。</t>
+  </si>
+  <si>
+    <t>可以幫寵物取綽號嗎？</t>
+  </si>
+  <si>
+    <t>當然可以，牠們會記住你給予的稱呼與語調。</t>
+  </si>
+  <si>
+    <t>寵物會喜歡照鏡子嗎？</t>
+  </si>
+  <si>
+    <t>多數不會認出自己，但有些會出現好奇或敵意。</t>
+  </si>
+  <si>
+    <t>寵物紀錄資料要備份嗎？</t>
+  </si>
+  <si>
+    <t>建議雲端備份，以防遺失重要健康與身分資料。</t>
+  </si>
+  <si>
+    <t>怎麼判斷是不是緊急？</t>
+  </si>
+  <si>
+    <t>可先檢查寵物是否意識清楚、呼吸順暢、心跳正常，並觀察牙齦顏色與毛細血管回填時間（按壓牙齦放開後應在 2 秒內恢復粉紅）。任何出現呼吸困難、持續抽搐、昏迷、大量出血、疑似中毒、高燒或體溫過低、突然無法站立等情況，都屬於緊急狀況，需立即送往動物醫院，同時在運送途中盡可能保持呼吸道暢通與體溫穩定。</t>
+  </si>
+  <si>
+    <t>寵物噎到怎麼辦？</t>
+  </si>
+  <si>
+    <t>若寵物仍能咳嗽或發出聲音，應保持鎮定並鼓勵牠自行排出異物，不要隨意伸手進嘴巴掏取；若完全無法呼吸、發聲且牙齦變紫，表示是完全阻塞，此時需立刻進行急救，例如小型犬貓可抱起頭朝下拍背、胸腔擠壓，大型犬可採立姿或側躺進行腹部擠壓（哈姆立克法），並在每次動作後檢查口腔是否可見異物，同時盡快送醫。</t>
+  </si>
+  <si>
+    <t>怎麼對犬貓做 CPR？</t>
+  </si>
+  <si>
+    <t>當寵物沒有呼吸且摸不到脈搏時，需立刻進行 CPR。將寵物側躺，雙手置於胸腔最寬處垂直下壓，頻率為每分鐘 100–120 次，深度約為胸腔寬度的 1/3–1/2；按壓 30 次後進行 2 次人工呼吸（口對鼻吹氣，胸廓輕微抬起為宜），並持續循環直到恢復心跳或交由獸醫處理。施救過程中需避免過度吹氣導致胃脹氣，並盡可能保持按壓不中斷。</t>
+  </si>
+  <si>
+    <t>中暑有哪些徵兆與應對方法？</t>
+  </si>
+  <si>
+    <t>寵物中暑常見症狀包括喘促不止、流口水、步態不穩、嘔吐腹瀉、牙齦鮮紅或發白、虛弱甚至昏迷。發現疑似中暑時，應立即將牠移至陰涼通風處，卸下項圈和口罩，使用溫涼水（非冰水）打濕腹股溝、腋下與腳墊，並用電扇輔助降溫，當體溫降至約 39.5°C 即停止主動降溫以避免低溫過度，能吞嚥的情況下可少量飲水，並立即送醫檢查。</t>
+  </si>
+  <si>
+    <t>遇到癲癇發作怎麼辦？</t>
+  </si>
+  <si>
+    <t>發作時不要將手或物品放入口中，避免咬傷或造成更多損害，應將周圍尖銳物移開並保持環境安靜，讓寵物躺在安全的平面並在頭下墊軟布，持續觀察並計時，若發作超過 5 分鐘或短時間內重複發作，屬於危急狀況，需立即送醫；發作停止後讓牠安靜休息並保暖，並記錄過程（影片或描述）供獸醫診斷。</t>
+  </si>
+  <si>
+    <t>寵物大出血時怎麼止血？</t>
+  </si>
+  <si>
+    <t>應立即以乾淨紗布或布料直接壓迫出血處 3–5 分鐘，期間不要掀開檢查，以免影響凝血，若血液滲出應在外層加疊新的紗布持續加壓，必要時用棉墊和彈性繃帶固定並確保末端肢體不因包紮過緊而變紫或冰冷；若出血量大且來自動脈，且無法以壓迫控制，可在上方使用止血帶暫時止血，每 2–3 分鐘稍微放鬆一次，並儘快送醫。</t>
+  </si>
+  <si>
+    <t>寵物中毒時該怎麼辦？</t>
+  </si>
+  <si>
+    <t>先將寵物移離毒源並確保牠安全，保留可能的毒物包裝、殘留物或植物樣本，記下攝入時間與大約的量，並立即聯絡獸醫；在未經獸醫指示下不要自行催吐，尤其是腐蝕性物質、昏迷或抽搐的情況下更危險。運送途中應保持安靜、避免奔跑以減少毒物吸收，並將毒物資訊完整告知獸醫以利處理。</t>
+  </si>
+  <si>
+    <t>骨折或脫臼怎麼處理？</t>
+  </si>
+  <si>
+    <t>不要自行復位，應盡量限制受傷部位的活動，可用毛巾或布條將患肢靠近身體固定，或使用硬板作為臨時夾板固定上下關節，避免進一步移動造成二次傷害；若同時有出血，先止血再固定，並在運送過程中減少顛簸，盡快送醫做 X 光檢查與治療。</t>
+  </si>
+  <si>
+    <t>燒燙傷該如何急救？</t>
+  </si>
+  <si>
+    <t>熱燙傷應立即用 15–25°C 的涼水沖洗傷口 10–15 分鐘以降溫，但不要使用冰塊；化學灼傷需大量清水沖洗至少 15 分鐘並避免觸碰傷口周邊；電灼傷要先切斷電源再接近寵物，以免自己觸電。任何燒燙傷都不要塗抹牙膏、油膏等物質，應保持傷口清潔覆蓋並立即送醫，以防感染與評估深度。</t>
+  </si>
+  <si>
+    <t>眼睛受傷時怎麼辦？</t>
+  </si>
+  <si>
+    <t>眼睛受傷時不要直接用手拔除異物，可用生理食鹽水輕柔沖洗以去除表面灰塵，避免用力過大傷到角膜；應防止寵物用爪子抓眼睛，可戴上伊莉莎白頭套保護；若眼睛流血、腫脹、渾濁或眼球外突，應用乾淨紗布輕蓋保護並立即送醫，因為眼部損傷處理時效性非常關鍵，拖延可能造成永久失明。</t>
+  </si>
+  <si>
+    <t>狗狗為什麼會一直吠叫？</t>
+  </si>
+  <si>
+    <t>持續吠叫可能是因為警戒、分離焦慮、無聊、想引起注意或對外界刺激反應。首先要找出原因，例如外面有陌生人經過、缺乏運動、或因主人才回家而興奮。改善方式包括增加每日運動量、提供玩具轉移注意力、用「安靜」口令配合獎勵訓練，以及遮蔽外部視線；若是焦慮問題，可透過逐步脫敏訓練與環境安撫來減輕。</t>
+  </si>
+  <si>
+    <t>貓咪為什麼會亂抓家具？</t>
+  </si>
+  <si>
+    <t>抓東西是貓的天性，除了磨爪外，還有標記氣味與舒展肌肉的作用。要改善，可以提供足夠的貓抓板（直立與水平型皆有），放在牠常抓的位置；當牠使用抓板時給予零食或撫摸獎勵，若抓家具時則用拍手或轉移注意力制止，同時用保護膜或雙面膠貼在家具表面減少吸引力。</t>
+  </si>
+  <si>
+    <t>狗狗喜歡撲人怎麼辦？</t>
+  </si>
+  <si>
+    <t>撲人通常是打招呼或索取關注的行為，但可能嚇到小孩或客人。訓練時，當狗狗撲人應立即轉身忽視，等牠四腳著地並安靜下來再給予獎勵；同時教導「坐下」作為替代行為，讓牠學會用坐下來換取注意與撫摸。</t>
+  </si>
+  <si>
+    <t>貓咪半夜亂跑亂叫怎麼解決？</t>
+  </si>
+  <si>
+    <t>這可能是天性活動時間（黎明和黃昏）導致，也可能是精力過剩或發情行為。解決方式包括在睡前與貓進行較多的互動遊戲消耗精力，提供能獨自玩耍的玩具，並確保晚上前有足夠的進食量；若是發情導致，建議結紮以減少夜間吵鬧行為。</t>
+  </si>
+  <si>
+    <t>寵物會偷翻垃圾桶怎麼辦？</t>
+  </si>
+  <si>
+    <t>翻垃圾通常是尋找食物或好奇。解決辦法包括使用有蓋且不易被打開的垃圾桶、將垃圾桶放在櫃子或高處、固定垃圾桶避免傾倒；同時確保寵物有足夠的食物與玩具，降低因無聊而翻找垃圾的動機。</t>
+  </si>
+  <si>
+    <t>狗狗散步時會拉繩怎麼糾正？</t>
+  </si>
+  <si>
+    <t>拉繩可能是興奮或急於探索。可使用胸背帶搭配短牽繩，當狗狗拉扯時立即停下不前進，等牠回到你身邊或牽繩鬆弛時再繼續走，重複多次讓牠明白拉扯無法達到目的。結合口令如「慢慢」與獎勵可以加快學習效果。</t>
+  </si>
+  <si>
+    <t>貓咪為什麼會咬人？</t>
+  </si>
+  <si>
+    <t>可能是玩心過大、過度刺激、警戒防禦或疼痛反應。需觀察牠咬人前的肢體信號（尾巴急甩、耳朵後貼、瞳孔放大），提前停止互動；提供合適的咬咬玩具取代手，避免用手直接與貓咪激烈玩耍。若咬人是因疼痛，應立即檢查身體狀況並就醫。</t>
+  </si>
+  <si>
+    <t>狗狗為什麼會護食？</t>
+  </si>
+  <si>
+    <t>護食是源於資源保護的本能。改善方法是在平時餵食時偶爾用手添加美味的食物，讓牠習慣有人靠近時有好事發生；避免突然奪走牠的食物，逐步練習交換物品，建立「給我」的指令與互信。若護食嚴重且伴隨攻擊行為，需在專業訓練師指導下進行。</t>
+  </si>
+  <si>
+    <t>貓咪為什麼會躲起來？</t>
+  </si>
+  <si>
+    <t>躲藏可能是正常的休息偏好，也可能因環境變化、壓力、害怕或生病。若躲藏時間不長且仍正常飲食、排泄與互動，多屬正常；若長時間不出來或伴隨食慾下降、精神萎靡，應就醫檢查，並在家中提供安全且安靜的藏身空間。</t>
+  </si>
+  <si>
+    <t>狗狗會拆家怎麼辦？</t>
+  </si>
+  <si>
+    <t>拆家通常是精力過剩、分離焦慮或無聊造成。可透過增加每日運動量、提供可咬玩具、益智食物球等方式轉移注意力，並在外出前先帶牠消耗體力。若是分離焦慮，可逐步練習短時間離開、建立安全區域，並在外出時提供能安撫情緒的物品（如帶有主人氣味的毛巾）。</t>
+  </si>
+  <si>
+    <t>帶寵物外出前應該準備什麼？</t>
+  </si>
+  <si>
+    <t>外出前應準備牠平時習慣的食物和水、折疊碗、牽繩或胸背帶、排泄用品（尿墊或便袋）、簡單的醫療用品（止血粉、紗布）、健康證明與疫苗紀錄，以及能讓牠安心的熟悉玩具或毯子，確保牠在陌生環境中有安全感。</t>
+  </si>
+  <si>
+    <t>寵物在車上容易暈車怎麼辦？</t>
+  </si>
+  <si>
+    <t>出發前 3–4 小時避免餵食，保持車內通風與舒適溫度，讓牠能看見外部景色或固定在安全座椅上，減少搖晃感；可攜帶毛巾或墊子吸收異味，若暈車嚴重，可事先諮詢獸醫使用暈車藥。</t>
+  </si>
+  <si>
+    <t>帶寵物搭火車或高鐵需要注意什麼？</t>
+  </si>
+  <si>
+    <t>需將寵物放置於符合規格的運輸籠內，並確保籠內鋪好吸水墊與透氣良好；不同交通工具對尺寸與重量有限制，出發前應先查詢相關規定，並提前到站預留時間辦理手續。</t>
+  </si>
+  <si>
+    <t>寵物第一次出門可能會很緊張，怎麼減輕牠的焦慮？</t>
+  </si>
+  <si>
+    <t>可在出門前幾天讓牠熟悉運輸籠或胸背帶，並短時間帶到附近走走，逐步增加外出時間與距離；外出時使用熟悉的墊子、玩具或帶有主人氣味的物品安撫，保持語氣溫和並給予零食獎勵。</t>
+  </si>
+  <si>
+    <t>旅行中如何確保寵物安全？</t>
+  </si>
+  <si>
+    <t>外出時務必使用牽繩或胸背帶，不要讓牠單獨留在車內或陌生環境；住宿時檢查房間有無危險物品或可逃脫的縫隙，並確保寵物有固定的休息區域與飲水來源。</t>
+  </si>
+  <si>
+    <t>可以帶寵物上飛機嗎？</t>
+  </si>
+  <si>
+    <t>多數航空公司允許小型寵物以隨身方式放置於座位下的專用航空箱，大型寵物則需托運至貨艙。需提前確認航空公司規範，準備健康證明與疫苗接種紀錄，並使用符合 IATA 標準的航空箱。</t>
+  </si>
+  <si>
+    <t>出國帶寵物需要辦什麼手續？</t>
+  </si>
+  <si>
+    <t>需確認目的地國家的檢疫與入境規定，通常需要健康檢查證明、狂犬病疫苗證明與植入晶片，有些國家還需隔離檢疫；程序繁瑣，建議至少提前 3–6 個月準備。</t>
+  </si>
+  <si>
+    <t>寵物在外面走失怎麼辦？</t>
+  </si>
+  <si>
+    <t>立即在當地尋找，並向附近動物醫院、收容所與警察報案，同時張貼協尋公告或在社群平台發布訊息。若寵物有晶片與名牌，可以大大提高被找回的機率。</t>
+  </si>
+  <si>
+    <t>旅途中寵物突然生病該怎麼處理？</t>
+  </si>
+  <si>
+    <t>應隨身攜帶緊急醫療用品與當地獸醫院清單，若出現嘔吐、腹瀉、呼吸急促等症狀，先讓牠休息並保持水分，情況持續或惡化就立即送醫；旅行前可事先詢問主治獸醫是否需要攜帶備用藥物。</t>
+  </si>
+  <si>
+    <t>帶寵物旅行有哪些額外花費需要考慮？</t>
+  </si>
+  <si>
+    <t>除了交通與住宿費外，還需考慮寵物友善飯店的額外清潔費、交通運輸附加費（火車、飛機托運費）、臨時醫療費用、保險，以及可能需要購買的額外用品如便攜籠、可折疊水碗等。</t>
+  </si>
+  <si>
+    <t>寵物多久要做一次健康檢查？</t>
+  </si>
+  <si>
+    <t>一般建議成年犬貓每年進行一次完整健康檢查，包括體格檢查、血液檢驗、尿檢與糞檢；老年寵物（狗 7 歲以上、貓 10 歲以上）則建議每半年檢查一次，以便及早發現慢性病或器官功能退化的徵兆。</t>
+  </si>
+  <si>
+    <t>健康檢查通常包含哪些項目？</t>
+  </si>
+  <si>
+    <t>完整檢查包括體重與體態評估、牙齒與口腔檢查、眼耳鼻口觀察、皮膚與毛髮檢視、心肺聽診、腹部觸診，以及血液生化檢查、全血計數、尿液與糞便分析；必要時會進行 X 光、超音波或心電圖檢查。</t>
+  </si>
+  <si>
+    <t>血液檢查能檢測什麼？</t>
+  </si>
+  <si>
+    <t>血液檢查可以檢測紅白血球數、血紅素濃度、肝腎功能、血糖、膽固醇與電解質平衡，這些數據能幫助獸醫判斷是否有感染、貧血、代謝異常或器官疾病。</t>
+  </si>
+  <si>
+    <t>為什麼老年寵物需要更頻繁檢查？</t>
+  </si>
+  <si>
+    <t>老年寵物的器官功能下降速度較快，且慢性病（如腎臟病、心臟病、糖尿病）在早期症狀不明顯，透過半年一次的檢查能更早發現並開始治療，延長健康壽命與生活品質。</t>
+  </si>
+  <si>
+    <t>日常保健應該注意哪些方面？</t>
+  </si>
+  <si>
+    <t>日常保健包括均衡飲食、適當運動、規律作息、定期驅蟲與疫苗接種、維持口腔清潔、定期梳毛與洗澡，以及提供安全舒適的生活環境，並留意任何行為或食慾的變化。</t>
+  </si>
+  <si>
+    <t>牙齒保健有多重要？</t>
+  </si>
+  <si>
+    <t>牙齒健康直接影響進食與整體健康，牙周病會導致口臭、牙齦炎，甚至讓細菌進入血液影響心臟與腎臟。建議每週至少刷牙 2–3 次，搭配潔牙零食或玩具，並定期讓獸醫做專業洗牙。</t>
+  </si>
+  <si>
+    <t>寵物保健食品需要吃嗎？</t>
+  </si>
+  <si>
+    <t>是否需要保健品應依健康狀況與飲食營養而定，例如關節保健品（葡萄糖胺、軟骨素）適合老年或大型犬；魚油可幫助皮膚與毛髮健康；益生菌有助腸道；但須選擇專為寵物設計且經獸醫建議的產品，避免過量或不當使用。</t>
+  </si>
+  <si>
+    <t>體重控制為什麼很重要？</t>
+  </si>
+  <si>
+    <t>過重或過瘦都會影響健康，肥胖會增加關節、心肺與糖尿病的風險，過瘦則可能表示營養不足或有疾病。應透過控制飲食與增加運動來維持理想體態，並定期量體重追蹤。</t>
+  </si>
+  <si>
+    <t>有哪些疾病是健康檢查能提早發現的？</t>
+  </si>
+  <si>
+    <t>常見可提早發現的疾病包括慢性腎病、肝功能異常、糖尿病、甲狀腺功能異常、心臟病、腫瘤，以及寄生蟲感染。提早診斷意味著能更早介入治療，延緩病情惡化。</t>
+  </si>
+  <si>
+    <t>如何讓寵物適應健康檢查？</t>
+  </si>
+  <si>
+    <t>可在平時訓練牠接受簡單的身體觸碰（看牙齒、摸耳朵、檢查爪子），搭配零食獎勵，讓牠對檢查動作不害怕；外出前帶牠熟悉運輸籠或牽繩，並保持就診過程的耐心與安撫。</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF99D1-DB70-4647-BADC-D5F8C4D9F1BE}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1380,6 +1929,1438 @@
       </c>
       <c r="D10" t="s">
         <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DA7308-013B-421E-A64B-465486ED07CB}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="51.625" customWidth="1"/>
+    <col min="4" max="4" width="67.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A3B312-0DB8-4414-9879-6342BE992E27}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2B2787-66B9-4D39-8D94-E6047BC5BA3C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.875" customWidth="1"/>
+    <col min="4" max="4" width="66.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8423BF09-87E9-4970-93EC-3DF86ABF7B15}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="4" max="4" width="63.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067952E-C4D3-48EC-9BBE-1BC9550FB559}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="63.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="84.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4616CA0-AF7E-4D46-810F-23C87472795C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="135.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36550ED9-6A20-4AEA-A31B-F221EE3E39D1}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="4" max="4" width="129.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1A4E47-9EAE-4E2F-9FFF-D3D1C8ACF58E}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="142.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B9C817-5F15-434B-B525-CCD562C42FDC}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="131.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/寵物照護QA.xlsx
+++ b/寵物照護QA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECAA1C4-0693-4B12-8F8A-453CEAE235AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E28DBFF9-4632-492E-9346-218E54A5A06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="飼養前的準備" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,18 @@
     <sheet name="旅遊與外出" sheetId="8" r:id="rId8"/>
     <sheet name="老年寵物照護" sheetId="9" r:id="rId9"/>
     <sheet name="特殊情況應對（走失、中毒、交配等）" sheetId="10" r:id="rId10"/>
+    <sheet name="進階飼養知識" sheetId="11" r:id="rId11"/>
+    <sheet name="繁殖與成長知識" sheetId="12" r:id="rId12"/>
+    <sheet name=" 寵物心理與情緒" sheetId="13" r:id="rId13"/>
+    <sheet name=" 醫療與保健補充" sheetId="14" r:id="rId14"/>
+    <sheet name="社群與紀錄" sheetId="15" r:id="rId15"/>
+    <sheet name="寵物居家急救與緊急應變" sheetId="16" r:id="rId16"/>
+    <sheet name="寵物日常行為問題與改善方法" sheetId="17" r:id="rId17"/>
+    <sheet name="帶寵物出門與旅行注意事項" sheetId="18" r:id="rId18"/>
+    <sheet name="寵物健康檢查與保健" sheetId="19" r:id="rId19"/>
+    <sheet name="寵物飲食與營養管理" sheetId="20" r:id="rId20"/>
+    <sheet name="寵物心理與情緒照護" sheetId="21" r:id="rId21"/>
+    <sheet name="寵物居家安全與防護" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="459">
   <si>
     <t>Q1</t>
   </si>
@@ -700,6 +712,723 @@
   </si>
   <si>
     <t>長期承諾、愛與耐心，讓牠成為你家庭的一份子。</t>
+  </si>
+  <si>
+    <t>狗狗會認主人嗎？</t>
+  </si>
+  <si>
+    <t>會。狗狗有認知能力與記憶，能辨識主人的氣味、聲音與臉孔。</t>
+  </si>
+  <si>
+    <t>飼養第二隻狗會比較好嗎？</t>
+  </si>
+  <si>
+    <t>需視原本狗狗個性與飼主照顧能力，避免因競爭反而壓力更大。</t>
+  </si>
+  <si>
+    <t>為什麼貓咪會磨爪？</t>
+  </si>
+  <si>
+    <t>是本能行為，為了去除老化爪殼與標記地盤。</t>
+  </si>
+  <si>
+    <t>狗狗有色盲嗎？</t>
+  </si>
+  <si>
+    <t>狗狗視覺有限，能分辨藍與黃色，但紅綠色較難辨識。</t>
+  </si>
+  <si>
+    <t>怎麼區分公母寵物？</t>
+  </si>
+  <si>
+    <t>狗貓生殖器官在幼年即可辨別，獸醫也可協助判定。</t>
+  </si>
+  <si>
+    <t>貓咪會記仇嗎？</t>
+  </si>
+  <si>
+    <t>不會「記仇」，但會記得不愉快經驗並避免再接近。</t>
+  </si>
+  <si>
+    <t>寵物需要刷毛嗎？</t>
+  </si>
+  <si>
+    <t>是。可去除死毛、促進血液循環，尤其長毛品種需天天梳理。</t>
+  </si>
+  <si>
+    <t>寵物會作夢嗎？</t>
+  </si>
+  <si>
+    <t>是。研究顯示動物在睡眠中也會有REM期，會抽動四肢或發出聲音。</t>
+  </si>
+  <si>
+    <t>如何幫寵物拍照？</t>
+  </si>
+  <si>
+    <t>用自然光、低角度拍攝並吸引注意力；可用聲音或點心誘導。</t>
+  </si>
+  <si>
+    <t>寵物會認路回家嗎？</t>
+  </si>
+  <si>
+    <t>有些狗貓有方向感，但不可靠，仍應避免走失風險。</t>
+  </si>
+  <si>
+    <t>狗狗幾歲性成熟？</t>
+  </si>
+  <si>
+    <t>一般6–12個月，依品種體型不同略有差異。</t>
+  </si>
+  <si>
+    <t>發情期持續多久？</t>
+  </si>
+  <si>
+    <t>母狗約2–3週，貓則約7天左右。</t>
+  </si>
+  <si>
+    <t>怎麼知道母狗懷孕了？</t>
+  </si>
+  <si>
+    <t>胃部變大、乳頭變色、活動力下降，建議照超音波確認。</t>
+  </si>
+  <si>
+    <t>寵物懷孕需要補充營養嗎？</t>
+  </si>
+  <si>
+    <t>是，需增加蛋白質與熱量，請獸醫建議適當配方。</t>
+  </si>
+  <si>
+    <t>狗貓一次生幾隻？</t>
+  </si>
+  <si>
+    <t>看品種大小，狗約4–10隻，貓約3–6隻。</t>
+  </si>
+  <si>
+    <t>小狗幾週可以吃副食品</t>
+  </si>
+  <si>
+    <t>約3–4週開始離乳，可吃濕軟的幼犬飼料。</t>
+  </si>
+  <si>
+    <t>貓咪會照顧小貓嗎？</t>
+  </si>
+  <si>
+    <t>會，母貓具有強烈護子本能，建議不要過度打擾。</t>
+  </si>
+  <si>
+    <t>小狗幾個月可離乳？</t>
+  </si>
+  <si>
+    <t>通常在6–8週左右完成斷奶。</t>
+  </si>
+  <si>
+    <t>要幫寵物登記出生資訊嗎？</t>
+  </si>
+  <si>
+    <t>若參加比賽或育種，血統登記需提交出生證明。</t>
+  </si>
+  <si>
+    <t>什麼是基因遺傳病？</t>
+  </si>
+  <si>
+    <t>特定品種易攜帶疾病基因，如髖關節異常、視網膜萎縮等。</t>
+  </si>
+  <si>
+    <t>寵物會吃醋嗎？</t>
+  </si>
+  <si>
+    <t>會有類似情緒，當注意力分散時會出現行為改變。</t>
+  </si>
+  <si>
+    <t>怎麼看出寵物開心？</t>
+  </si>
+  <si>
+    <t>尾巴搖擺、靠近你、主動玩耍與呼嚕聲（貓）。</t>
+  </si>
+  <si>
+    <t>寵物會憂鬱嗎？</t>
+  </si>
+  <si>
+    <t>長期孤單或改變環境會讓寵物表現冷淡、食慾下降。</t>
+  </si>
+  <si>
+    <t>如何陪伴老年寵物？</t>
+  </si>
+  <si>
+    <t>每天與牠互動、輕柔按摩與話語交流，可讓牠安心。</t>
+  </si>
+  <si>
+    <t>怎麼緩解分離焦慮？</t>
+  </si>
+  <si>
+    <t>使用陪伴玩具、建立獨處時間、逐漸延長離開時間。</t>
+  </si>
+  <si>
+    <t>寵物為什麼會亂大小便？</t>
+  </si>
+  <si>
+    <t>可能是壓力、健康問題或訓練不完全所致。</t>
+  </si>
+  <si>
+    <t>寵物會感到被忽略嗎？</t>
+  </si>
+  <si>
+    <t>會。長時間無互動可能導致情緒行為問題。</t>
+  </si>
+  <si>
+    <t>怎麼安撫害怕的狗？</t>
+  </si>
+  <si>
+    <t>低聲安撫、避免擁抱強壓、可使用抗焦慮噴劑或外套。</t>
+  </si>
+  <si>
+    <t>打雷時寵物躲起來正常嗎</t>
+  </si>
+  <si>
+    <t>是正常壓力反應，可提供安全空間讓牠藏匿。</t>
+  </si>
+  <si>
+    <t>寵物認得自己的名字嗎？</t>
+  </si>
+  <si>
+    <t>經常呼喚與獎勵能讓牠辨認並回應名字。</t>
+  </si>
+  <si>
+    <t>寵物會蛀牙嗎？</t>
+  </si>
+  <si>
+    <t>狗貓也會牙結石與牙周病，需定期潔牙。</t>
+  </si>
+  <si>
+    <t>如何幫寵物刷牙？</t>
+  </si>
+  <si>
+    <t>使用寵物牙膏與專用牙刷，一週至少2次。</t>
+  </si>
+  <si>
+    <t>寵物流口水是生病嗎？</t>
+  </si>
+  <si>
+    <t>若頻繁、黏稠，可能為口腔問題或中毒徵兆。</t>
+  </si>
+  <si>
+    <t>寵物貧血有哪些症狀？</t>
+  </si>
+  <si>
+    <t>虛弱、黏膜蒼白、食慾不佳，需抽血檢查。</t>
+  </si>
+  <si>
+    <t>可以給寵物保健食品嗎？</t>
+  </si>
+  <si>
+    <t>可以，但須選擇適合種類與依建議劑量使用。</t>
+  </si>
+  <si>
+    <t>寵物生病該看哪科？</t>
+  </si>
+  <si>
+    <t>多數為「小動物內科」，特殊科如眼科、皮膚科可進一步轉診。</t>
+  </si>
+  <si>
+    <t>疫苗打了還會得病嗎？</t>
+  </si>
+  <si>
+    <t>仍有極小機率感染，但症狀較輕，保護力仍高。</t>
+  </si>
+  <si>
+    <t>寵物需要輸血嗎？</t>
+  </si>
+  <si>
+    <t>有些重病或外傷時確實需輸血，獸醫會做交叉配對。</t>
+  </si>
+  <si>
+    <t>醫療費太貴怎麼辦？</t>
+  </si>
+  <si>
+    <t>可考慮投保寵物保險，平時定期檢查預防重症。</t>
+  </si>
+  <si>
+    <t>寵物能做復健嗎？</t>
+  </si>
+  <si>
+    <t>有。如水療、磁療、關節伸展可改善術後或老年問題。</t>
+  </si>
+  <si>
+    <t>如何幫寵物做紀錄？</t>
+  </si>
+  <si>
+    <t>可用APP記錄疫苗、醫療、體重與飲食。</t>
+  </si>
+  <si>
+    <t>寵物可以上IG/TikTok嗎？</t>
+  </si>
+  <si>
+    <t>當然可以，許多毛孩都有自己的帳號與粉絲。</t>
+  </si>
+  <si>
+    <t>寵物寫真需要專業拍嗎？</t>
+  </si>
+  <si>
+    <t>可找寵物攝影師或使用手機搭配道具、背景拍攝。</t>
+  </si>
+  <si>
+    <t>可以幫寵物穿衣服嗎？</t>
+  </si>
+  <si>
+    <t>若天氣寒冷或皮膚保護需要，可適度穿著。</t>
+  </si>
+  <si>
+    <t>怎麼做寵物成長相簿？</t>
+  </si>
+  <si>
+    <t>每月拍攝1張，記錄從幼年到成年的變化。</t>
+  </si>
+  <si>
+    <t>有寵物專屬的社交平台嗎？</t>
+  </si>
+  <si>
+    <t>有，如Petpetgo、毛起來愛、Wag等。</t>
+  </si>
+  <si>
+    <t>怎麼辦寵物生日派對？</t>
+  </si>
+  <si>
+    <t>預約寵物友善空間、製作蛋糕、準備服飾與禮物。</t>
+  </si>
+  <si>
+    <t>可以幫寵物取綽號嗎？</t>
+  </si>
+  <si>
+    <t>當然可以，牠們會記住你給予的稱呼與語調。</t>
+  </si>
+  <si>
+    <t>寵物會喜歡照鏡子嗎？</t>
+  </si>
+  <si>
+    <t>多數不會認出自己，但有些會出現好奇或敵意。</t>
+  </si>
+  <si>
+    <t>寵物紀錄資料要備份嗎？</t>
+  </si>
+  <si>
+    <t>建議雲端備份，以防遺失重要健康與身分資料。</t>
+  </si>
+  <si>
+    <t>怎麼判斷是不是緊急？</t>
+  </si>
+  <si>
+    <t>可先檢查寵物是否意識清楚、呼吸順暢、心跳正常，並觀察牙齦顏色與毛細血管回填時間（按壓牙齦放開後應在 2 秒內恢復粉紅）。任何出現呼吸困難、持續抽搐、昏迷、大量出血、疑似中毒、高燒或體溫過低、突然無法站立等情況，都屬於緊急狀況，需立即送往動物醫院，同時在運送途中盡可能保持呼吸道暢通與體溫穩定。</t>
+  </si>
+  <si>
+    <t>寵物噎到怎麼辦？</t>
+  </si>
+  <si>
+    <t>若寵物仍能咳嗽或發出聲音，應保持鎮定並鼓勵牠自行排出異物，不要隨意伸手進嘴巴掏取；若完全無法呼吸、發聲且牙齦變紫，表示是完全阻塞，此時需立刻進行急救，例如小型犬貓可抱起頭朝下拍背、胸腔擠壓，大型犬可採立姿或側躺進行腹部擠壓（哈姆立克法），並在每次動作後檢查口腔是否可見異物，同時盡快送醫。</t>
+  </si>
+  <si>
+    <t>怎麼對犬貓做 CPR？</t>
+  </si>
+  <si>
+    <t>當寵物沒有呼吸且摸不到脈搏時，需立刻進行 CPR。將寵物側躺，雙手置於胸腔最寬處垂直下壓，頻率為每分鐘 100–120 次，深度約為胸腔寬度的 1/3–1/2；按壓 30 次後進行 2 次人工呼吸（口對鼻吹氣，胸廓輕微抬起為宜），並持續循環直到恢復心跳或交由獸醫處理。施救過程中需避免過度吹氣導致胃脹氣，並盡可能保持按壓不中斷。</t>
+  </si>
+  <si>
+    <t>中暑有哪些徵兆與應對方法？</t>
+  </si>
+  <si>
+    <t>寵物中暑常見症狀包括喘促不止、流口水、步態不穩、嘔吐腹瀉、牙齦鮮紅或發白、虛弱甚至昏迷。發現疑似中暑時，應立即將牠移至陰涼通風處，卸下項圈和口罩，使用溫涼水（非冰水）打濕腹股溝、腋下與腳墊，並用電扇輔助降溫，當體溫降至約 39.5°C 即停止主動降溫以避免低溫過度，能吞嚥的情況下可少量飲水，並立即送醫檢查。</t>
+  </si>
+  <si>
+    <t>遇到癲癇發作怎麼辦？</t>
+  </si>
+  <si>
+    <t>發作時不要將手或物品放入口中，避免咬傷或造成更多損害，應將周圍尖銳物移開並保持環境安靜，讓寵物躺在安全的平面並在頭下墊軟布，持續觀察並計時，若發作超過 5 分鐘或短時間內重複發作，屬於危急狀況，需立即送醫；發作停止後讓牠安靜休息並保暖，並記錄過程（影片或描述）供獸醫診斷。</t>
+  </si>
+  <si>
+    <t>寵物大出血時怎麼止血？</t>
+  </si>
+  <si>
+    <t>應立即以乾淨紗布或布料直接壓迫出血處 3–5 分鐘，期間不要掀開檢查，以免影響凝血，若血液滲出應在外層加疊新的紗布持續加壓，必要時用棉墊和彈性繃帶固定並確保末端肢體不因包紮過緊而變紫或冰冷；若出血量大且來自動脈，且無法以壓迫控制，可在上方使用止血帶暫時止血，每 2–3 分鐘稍微放鬆一次，並儘快送醫。</t>
+  </si>
+  <si>
+    <t>寵物中毒時該怎麼辦？</t>
+  </si>
+  <si>
+    <t>先將寵物移離毒源並確保牠安全，保留可能的毒物包裝、殘留物或植物樣本，記下攝入時間與大約的量，並立即聯絡獸醫；在未經獸醫指示下不要自行催吐，尤其是腐蝕性物質、昏迷或抽搐的情況下更危險。運送途中應保持安靜、避免奔跑以減少毒物吸收，並將毒物資訊完整告知獸醫以利處理。</t>
+  </si>
+  <si>
+    <t>骨折或脫臼怎麼處理？</t>
+  </si>
+  <si>
+    <t>不要自行復位，應盡量限制受傷部位的活動，可用毛巾或布條將患肢靠近身體固定，或使用硬板作為臨時夾板固定上下關節，避免進一步移動造成二次傷害；若同時有出血，先止血再固定，並在運送過程中減少顛簸，盡快送醫做 X 光檢查與治療。</t>
+  </si>
+  <si>
+    <t>燒燙傷該如何急救？</t>
+  </si>
+  <si>
+    <t>熱燙傷應立即用 15–25°C 的涼水沖洗傷口 10–15 分鐘以降溫，但不要使用冰塊；化學灼傷需大量清水沖洗至少 15 分鐘並避免觸碰傷口周邊；電灼傷要先切斷電源再接近寵物，以免自己觸電。任何燒燙傷都不要塗抹牙膏、油膏等物質，應保持傷口清潔覆蓋並立即送醫，以防感染與評估深度。</t>
+  </si>
+  <si>
+    <t>眼睛受傷時怎麼辦？</t>
+  </si>
+  <si>
+    <t>眼睛受傷時不要直接用手拔除異物，可用生理食鹽水輕柔沖洗以去除表面灰塵，避免用力過大傷到角膜；應防止寵物用爪子抓眼睛，可戴上伊莉莎白頭套保護；若眼睛流血、腫脹、渾濁或眼球外突，應用乾淨紗布輕蓋保護並立即送醫，因為眼部損傷處理時效性非常關鍵，拖延可能造成永久失明。</t>
+  </si>
+  <si>
+    <t>狗狗為什麼會一直吠叫？</t>
+  </si>
+  <si>
+    <t>持續吠叫可能是因為警戒、分離焦慮、無聊、想引起注意或對外界刺激反應。首先要找出原因，例如外面有陌生人經過、缺乏運動、或因主人才回家而興奮。改善方式包括增加每日運動量、提供玩具轉移注意力、用「安靜」口令配合獎勵訓練，以及遮蔽外部視線；若是焦慮問題，可透過逐步脫敏訓練與環境安撫來減輕。</t>
+  </si>
+  <si>
+    <t>貓咪為什麼會亂抓家具？</t>
+  </si>
+  <si>
+    <t>抓東西是貓的天性，除了磨爪外，還有標記氣味與舒展肌肉的作用。要改善，可以提供足夠的貓抓板（直立與水平型皆有），放在牠常抓的位置；當牠使用抓板時給予零食或撫摸獎勵，若抓家具時則用拍手或轉移注意力制止，同時用保護膜或雙面膠貼在家具表面減少吸引力。</t>
+  </si>
+  <si>
+    <t>狗狗喜歡撲人怎麼辦？</t>
+  </si>
+  <si>
+    <t>撲人通常是打招呼或索取關注的行為，但可能嚇到小孩或客人。訓練時，當狗狗撲人應立即轉身忽視，等牠四腳著地並安靜下來再給予獎勵；同時教導「坐下」作為替代行為，讓牠學會用坐下來換取注意與撫摸。</t>
+  </si>
+  <si>
+    <t>貓咪半夜亂跑亂叫怎麼解決？</t>
+  </si>
+  <si>
+    <t>這可能是天性活動時間（黎明和黃昏）導致，也可能是精力過剩或發情行為。解決方式包括在睡前與貓進行較多的互動遊戲消耗精力，提供能獨自玩耍的玩具，並確保晚上前有足夠的進食量；若是發情導致，建議結紮以減少夜間吵鬧行為。</t>
+  </si>
+  <si>
+    <t>寵物會偷翻垃圾桶怎麼辦？</t>
+  </si>
+  <si>
+    <t>翻垃圾通常是尋找食物或好奇。解決辦法包括使用有蓋且不易被打開的垃圾桶、將垃圾桶放在櫃子或高處、固定垃圾桶避免傾倒；同時確保寵物有足夠的食物與玩具，降低因無聊而翻找垃圾的動機。</t>
+  </si>
+  <si>
+    <t>狗狗散步時會拉繩怎麼糾正？</t>
+  </si>
+  <si>
+    <t>拉繩可能是興奮或急於探索。可使用胸背帶搭配短牽繩，當狗狗拉扯時立即停下不前進，等牠回到你身邊或牽繩鬆弛時再繼續走，重複多次讓牠明白拉扯無法達到目的。結合口令如「慢慢」與獎勵可以加快學習效果。</t>
+  </si>
+  <si>
+    <t>貓咪為什麼會咬人？</t>
+  </si>
+  <si>
+    <t>可能是玩心過大、過度刺激、警戒防禦或疼痛反應。需觀察牠咬人前的肢體信號（尾巴急甩、耳朵後貼、瞳孔放大），提前停止互動；提供合適的咬咬玩具取代手，避免用手直接與貓咪激烈玩耍。若咬人是因疼痛，應立即檢查身體狀況並就醫。</t>
+  </si>
+  <si>
+    <t>狗狗為什麼會護食？</t>
+  </si>
+  <si>
+    <t>護食是源於資源保護的本能。改善方法是在平時餵食時偶爾用手添加美味的食物，讓牠習慣有人靠近時有好事發生；避免突然奪走牠的食物，逐步練習交換物品，建立「給我」的指令與互信。若護食嚴重且伴隨攻擊行為，需在專業訓練師指導下進行。</t>
+  </si>
+  <si>
+    <t>貓咪為什麼會躲起來？</t>
+  </si>
+  <si>
+    <t>躲藏可能是正常的休息偏好，也可能因環境變化、壓力、害怕或生病。若躲藏時間不長且仍正常飲食、排泄與互動，多屬正常；若長時間不出來或伴隨食慾下降、精神萎靡，應就醫檢查，並在家中提供安全且安靜的藏身空間。</t>
+  </si>
+  <si>
+    <t>狗狗會拆家怎麼辦？</t>
+  </si>
+  <si>
+    <t>拆家通常是精力過剩、分離焦慮或無聊造成。可透過增加每日運動量、提供可咬玩具、益智食物球等方式轉移注意力，並在外出前先帶牠消耗體力。若是分離焦慮，可逐步練習短時間離開、建立安全區域，並在外出時提供能安撫情緒的物品（如帶有主人氣味的毛巾）。</t>
+  </si>
+  <si>
+    <t>帶寵物外出前應該準備什麼？</t>
+  </si>
+  <si>
+    <t>外出前應準備牠平時習慣的食物和水、折疊碗、牽繩或胸背帶、排泄用品（尿墊或便袋）、簡單的醫療用品（止血粉、紗布）、健康證明與疫苗紀錄，以及能讓牠安心的熟悉玩具或毯子，確保牠在陌生環境中有安全感。</t>
+  </si>
+  <si>
+    <t>寵物在車上容易暈車怎麼辦？</t>
+  </si>
+  <si>
+    <t>出發前 3–4 小時避免餵食，保持車內通風與舒適溫度，讓牠能看見外部景色或固定在安全座椅上，減少搖晃感；可攜帶毛巾或墊子吸收異味，若暈車嚴重，可事先諮詢獸醫使用暈車藥。</t>
+  </si>
+  <si>
+    <t>帶寵物搭火車或高鐵需要注意什麼？</t>
+  </si>
+  <si>
+    <t>需將寵物放置於符合規格的運輸籠內，並確保籠內鋪好吸水墊與透氣良好；不同交通工具對尺寸與重量有限制，出發前應先查詢相關規定，並提前到站預留時間辦理手續。</t>
+  </si>
+  <si>
+    <t>寵物第一次出門可能會很緊張，怎麼減輕牠的焦慮？</t>
+  </si>
+  <si>
+    <t>可在出門前幾天讓牠熟悉運輸籠或胸背帶，並短時間帶到附近走走，逐步增加外出時間與距離；外出時使用熟悉的墊子、玩具或帶有主人氣味的物品安撫，保持語氣溫和並給予零食獎勵。</t>
+  </si>
+  <si>
+    <t>旅行中如何確保寵物安全？</t>
+  </si>
+  <si>
+    <t>外出時務必使用牽繩或胸背帶，不要讓牠單獨留在車內或陌生環境；住宿時檢查房間有無危險物品或可逃脫的縫隙，並確保寵物有固定的休息區域與飲水來源。</t>
+  </si>
+  <si>
+    <t>可以帶寵物上飛機嗎？</t>
+  </si>
+  <si>
+    <t>多數航空公司允許小型寵物以隨身方式放置於座位下的專用航空箱，大型寵物則需托運至貨艙。需提前確認航空公司規範，準備健康證明與疫苗接種紀錄，並使用符合 IATA 標準的航空箱。</t>
+  </si>
+  <si>
+    <t>出國帶寵物需要辦什麼手續？</t>
+  </si>
+  <si>
+    <t>需確認目的地國家的檢疫與入境規定，通常需要健康檢查證明、狂犬病疫苗證明與植入晶片，有些國家還需隔離檢疫；程序繁瑣，建議至少提前 3–6 個月準備。</t>
+  </si>
+  <si>
+    <t>寵物在外面走失怎麼辦？</t>
+  </si>
+  <si>
+    <t>立即在當地尋找，並向附近動物醫院、收容所與警察報案，同時張貼協尋公告或在社群平台發布訊息。若寵物有晶片與名牌，可以大大提高被找回的機率。</t>
+  </si>
+  <si>
+    <t>旅途中寵物突然生病該怎麼處理？</t>
+  </si>
+  <si>
+    <t>應隨身攜帶緊急醫療用品與當地獸醫院清單，若出現嘔吐、腹瀉、呼吸急促等症狀，先讓牠休息並保持水分，情況持續或惡化就立即送醫；旅行前可事先詢問主治獸醫是否需要攜帶備用藥物。</t>
+  </si>
+  <si>
+    <t>帶寵物旅行有哪些額外花費需要考慮？</t>
+  </si>
+  <si>
+    <t>除了交通與住宿費外，還需考慮寵物友善飯店的額外清潔費、交通運輸附加費（火車、飛機托運費）、臨時醫療費用、保險，以及可能需要購買的額外用品如便攜籠、可折疊水碗等。</t>
+  </si>
+  <si>
+    <t>寵物多久要做一次健康檢查？</t>
+  </si>
+  <si>
+    <t>一般建議成年犬貓每年進行一次完整健康檢查，包括體格檢查、血液檢驗、尿檢與糞檢；老年寵物（狗 7 歲以上、貓 10 歲以上）則建議每半年檢查一次，以便及早發現慢性病或器官功能退化的徵兆。</t>
+  </si>
+  <si>
+    <t>健康檢查通常包含哪些項目？</t>
+  </si>
+  <si>
+    <t>完整檢查包括體重與體態評估、牙齒與口腔檢查、眼耳鼻口觀察、皮膚與毛髮檢視、心肺聽診、腹部觸診，以及血液生化檢查、全血計數、尿液與糞便分析；必要時會進行 X 光、超音波或心電圖檢查。</t>
+  </si>
+  <si>
+    <t>血液檢查能檢測什麼？</t>
+  </si>
+  <si>
+    <t>血液檢查可以檢測紅白血球數、血紅素濃度、肝腎功能、血糖、膽固醇與電解質平衡，這些數據能幫助獸醫判斷是否有感染、貧血、代謝異常或器官疾病。</t>
+  </si>
+  <si>
+    <t>為什麼老年寵物需要更頻繁檢查？</t>
+  </si>
+  <si>
+    <t>老年寵物的器官功能下降速度較快，且慢性病（如腎臟病、心臟病、糖尿病）在早期症狀不明顯，透過半年一次的檢查能更早發現並開始治療，延長健康壽命與生活品質。</t>
+  </si>
+  <si>
+    <t>日常保健應該注意哪些方面？</t>
+  </si>
+  <si>
+    <t>日常保健包括均衡飲食、適當運動、規律作息、定期驅蟲與疫苗接種、維持口腔清潔、定期梳毛與洗澡，以及提供安全舒適的生活環境，並留意任何行為或食慾的變化。</t>
+  </si>
+  <si>
+    <t>牙齒保健有多重要？</t>
+  </si>
+  <si>
+    <t>牙齒健康直接影響進食與整體健康，牙周病會導致口臭、牙齦炎，甚至讓細菌進入血液影響心臟與腎臟。建議每週至少刷牙 2–3 次，搭配潔牙零食或玩具，並定期讓獸醫做專業洗牙。</t>
+  </si>
+  <si>
+    <t>寵物保健食品需要吃嗎？</t>
+  </si>
+  <si>
+    <t>是否需要保健品應依健康狀況與飲食營養而定，例如關節保健品（葡萄糖胺、軟骨素）適合老年或大型犬；魚油可幫助皮膚與毛髮健康；益生菌有助腸道；但須選擇專為寵物設計且經獸醫建議的產品，避免過量或不當使用。</t>
+  </si>
+  <si>
+    <t>體重控制為什麼很重要？</t>
+  </si>
+  <si>
+    <t>過重或過瘦都會影響健康，肥胖會增加關節、心肺與糖尿病的風險，過瘦則可能表示營養不足或有疾病。應透過控制飲食與增加運動來維持理想體態，並定期量體重追蹤。</t>
+  </si>
+  <si>
+    <t>有哪些疾病是健康檢查能提早發現的？</t>
+  </si>
+  <si>
+    <t>常見可提早發現的疾病包括慢性腎病、肝功能異常、糖尿病、甲狀腺功能異常、心臟病、腫瘤，以及寄生蟲感染。提早診斷意味著能更早介入治療，延緩病情惡化。</t>
+  </si>
+  <si>
+    <t>如何讓寵物適應健康檢查？</t>
+  </si>
+  <si>
+    <t>可在平時訓練牠接受簡單的身體觸碰（看牙齒、摸耳朵、檢查爪子），搭配零食獎勵，讓牠對檢查動作不害怕；外出前帶牠熟悉運輸籠或牽繩，並保持就診過程的耐心與安撫。</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>寵物需要固定餵食時間嗎？</t>
+  </si>
+  <si>
+    <t>是的，固定餵食時間能幫助維持良好的腸胃規律與行為穩定。幼犬幼貓通常需要一天 3–4 餐，成年犬貓則可調整為一天 1–2 餐。固定餵食也能幫助飼主觀察食慾變化，及早發現健康問題。</t>
+  </si>
+  <si>
+    <t>乾糧與罐頭哪個比較好？</t>
+  </si>
+  <si>
+    <t>乾糧保存方便，能幫助磨牙與減少牙垢；罐頭含水量高，能增加水分攝取並對偏食寵物更有吸引力。最佳做法是依需求混合餵食，例如以乾糧為主，搭配部分罐頭或鮮食，達到營養與水分的平衡。</t>
+  </si>
+  <si>
+    <t>不建議。許多人類食物對寵物有毒或難以消化，例如巧克力、葡萄、洋蔥、大蒜、木糖醇、酒精等都可能致命。即使是安全食材，也需注意烹調方式（不能油炸、調味）與份量控制，避免造成肥胖與消化不良。</t>
+  </si>
+  <si>
+    <t>怎麼判斷飼料是否優質？</t>
+  </si>
+  <si>
+    <t>要查看成分表，優質飼料應以動物性蛋白（如雞肉、魚肉）為主要原料，避免以大量穀物或副產品為主。營養比例要符合 AAFCO 或 FEDIAF 標準，並且不含過多人工色素、香料或防腐劑。</t>
+  </si>
+  <si>
+    <t>幼犬幼貓的飲食需要特別注意什麼？</t>
+  </si>
+  <si>
+    <t>幼年期是快速成長階段，需要高蛋白、高熱量與鈣磷比例均衡的專用飼料，幫助骨骼與免疫系統發育。切勿餵成年寵物飼料，以免營養不足影響生長。</t>
+  </si>
+  <si>
+    <t>老年寵物的飲食要怎麼調整？</t>
+  </si>
+  <si>
+    <t>老年寵物活動量下降，容易肥胖且器官功能逐漸退化，因此飲食應選擇低熱量、高纖維、易消化的配方，並增加含關節保護或腎臟支持的營養素（如葡萄糖胺、Omega-3 脂肪酸）。</t>
+  </si>
+  <si>
+    <t>寵物需要補鈣或維生素嗎？</t>
+  </si>
+  <si>
+    <t>若食用的是完整均衡的商業飼料，通常不需額外補充。若是自製鮮食，營養比例可能不均衡，則建議在獸醫指導下補充鈣質、維生素或微量元素，以避免骨骼問題或免疫力不足。</t>
+  </si>
+  <si>
+    <t>寵物喝牛奶可以嗎？</t>
+  </si>
+  <si>
+    <t>多數成年貓狗缺乏乳糖酶，喝牛奶容易造成腹瀉與腸胃不適。市面上有專為寵物設計的低乳糖或無乳糖寵物奶粉，才適合用來補充。幼年期的寵物若需要人工哺乳，必須使用專用奶粉。</t>
+  </si>
+  <si>
+    <t>肥胖寵物該怎麼飲食控制？</t>
+  </si>
+  <si>
+    <t>應選擇低熱量配方，並以「計算每日熱量需求」為基準分餐餵食，避免隨意投餵零食；可用益智食物球延長進食時間，讓寵物邊玩邊吃，減少暴食情況。同時需搭配規律運動，達到健康減重的效果。</t>
+  </si>
+  <si>
+    <t>如何確保寵物攝取足夠水分？</t>
+  </si>
+  <si>
+    <t>狗狗通常會自行飲水，但貓咪常喝得不足。建議在家中多處放置水碗，並保持水源乾淨；部分貓咪喜歡流動水，可使用飲水機；若仍攝水不足，可增加罐頭、鮮食或在乾糧中拌水，預防泌尿與腎臟疾病。</t>
+  </si>
+  <si>
+    <t>寵物會感到孤單嗎？</t>
+  </si>
+  <si>
+    <t>會。狗狗通常需要較多陪伴，長時間單獨在家容易產生分離焦慮；貓咪雖較獨立，但若缺乏互動也可能感到孤單，導致行為問題或情緒低落。</t>
+  </si>
+  <si>
+    <t>怎麼判斷寵物是否有壓力？</t>
+  </si>
+  <si>
+    <t>常見壓力表現包括食慾下降、頻繁舔毛、躲藏、異常吠叫或排泄行為。需觀察是否持續發生並找出壓力來源，例如環境變化、噪音或缺乏陪伴。</t>
+  </si>
+  <si>
+    <t>寵物會得憂鬱症嗎？</t>
+  </si>
+  <si>
+    <t>是的，長期孤單、失去同伴或重大生活改變可能導致寵物出現憂鬱症狀，如嗜睡、無精打采、失去興趣。這需要透過增加互動、提供刺激，甚至醫師建議下使用藥物來改善。</t>
+  </si>
+  <si>
+    <t>如何安撫焦慮的狗狗？</t>
+  </si>
+  <si>
+    <t>可透過規律作息、使用安撫玩具、播放輕音樂、提供隱蔽安全的小空間幫助減壓；若是分離焦慮，需循序漸進讓牠適應獨處。</t>
+  </si>
+  <si>
+    <t>貓咪為什麼喜歡躲起來？</t>
+  </si>
+  <si>
+    <t>躲藏是貓咪的本能，能讓牠感到安全。但若過度躲藏且伴隨食慾下降或活動減少，可能是壓力或生病的訊號，需要進一步觀察與檢查。</t>
+  </si>
+  <si>
+    <t>如何幫助寵物適應新環境？</t>
+  </si>
+  <si>
+    <t>應逐步引導，不要一次讓牠接觸整個新環境。先提供一個安靜的小空間，裡面放熟悉的毯子或玩具，等牠穩定後再擴展活動範圍。</t>
+  </si>
+  <si>
+    <t>寵物會嫉妒嗎？</t>
+  </si>
+  <si>
+    <t>會。當飼主對其他人或動物給予更多注意時，寵物可能表現出黏人、吠叫或破壞行為。應公平對待，並在互動時給予牠足夠的安全感。</t>
+  </si>
+  <si>
+    <t>怎麼避免寵物無聊？</t>
+  </si>
+  <si>
+    <t>提供益智玩具、食物隱藏遊戲、定期更換玩具，並安排日常活動與訓練。對狗狗來說，戶外運動與嗅聞活動能大幅降低無聊感。</t>
+  </si>
+  <si>
+    <t>寵物會感受到飼主的情緒嗎？</t>
+  </si>
+  <si>
+    <t>會。研究顯示寵物能透過聲音、表情與肢體語言感受飼主情緒，當飼主焦慮或憂鬱時，寵物也可能出現相應的緊張行為。</t>
+  </si>
+  <si>
+    <t>怎麼與寵物建立更好的情感連結？</t>
+  </si>
+  <si>
+    <t>透過日常陪伴、規律的互動、溫柔的撫摸與正向獎勵，讓寵物覺得與飼主相處是安全且愉快的；避免打罵與忽視，因為信任是逐步累積的。</t>
+  </si>
+  <si>
+    <t>家中有哪些東西對寵物有毒？</t>
+  </si>
+  <si>
+    <t>常見有毒食物包括巧克力、洋蔥、大蒜、葡萄、木糖醇、酒精；常見有毒植物包括百合、杜鵑、聖誕紅、滴水觀音；清潔劑、殺蟲劑、藥物等也非常危險。應將這些物品妥善收納，避免寵物誤食。</t>
+  </si>
+  <si>
+    <t>如何防止寵物咬電線？</t>
+  </si>
+  <si>
+    <t>電線應收納於防咬管內或固定在牆角，避免外露；可在電線表面噴灑苦味劑降低咬的慾望，並提供適合的咬咬玩具滿足咀嚼需求。若發現有觸電風險，務必立即檢查環境並更換受損線材。</t>
+  </si>
+  <si>
+    <t>陽台或窗戶對寵物有危險嗎？</t>
+  </si>
+  <si>
+    <t>是的，貓狗都有可能因追逐或好奇而墜落。建議安裝防護網或堅固的紗窗，並避免在窗邊放置可攀爬的家具，降低危險。</t>
+  </si>
+  <si>
+    <t>寵物會誤食小物品嗎？</t>
+  </si>
+  <si>
+    <t>會。鈕扣、橡皮筋、塑膠袋、髮圈、玩具零件都有可能被誤食，造成腸道阻塞。建議避免將這些小物品放在地面或寵物可觸及的地方。</t>
+  </si>
+  <si>
+    <t>如何避免寵物接觸化學清潔劑？</t>
+  </si>
+  <si>
+    <t>清潔劑與殺蟲劑應放在高處或鎖櫃內，使用後確保地板完全乾燥再讓寵物進入。若不慎接觸，應立即以大量清水沖洗並送醫。</t>
+  </si>
+  <si>
+    <t>廚房對寵物來說危險嗎？</t>
+  </si>
+  <si>
+    <t>是的，廚房有熱爐、油鍋、刀具與容易掉落的食物。建議用防護門隔離廚房，或在烹飪時避免寵物進入，降低燙傷與誤食風險。</t>
+  </si>
+  <si>
+    <t>家具需要特別注意嗎？</t>
+  </si>
+  <si>
+    <t>需要。尖角家具容易造成撞傷，可用護角套保護；搖晃不穩的櫃子應固定在牆上，避免寵物攀爬時傾倒；玻璃桌面應使用防滑墊避免碎裂。</t>
+  </si>
+  <si>
+    <t>如何讓寵物在家裡有安全活動空間？</t>
+  </si>
+  <si>
+    <t>應提供一個專屬區域，放置食盆、水碗、床墊與玩具，避免危險物品接觸，讓寵物能自由活動又安全。對於幼犬幼貓，可用圍欄或籠子限制活動範圍。</t>
+  </si>
+  <si>
+    <t>發生居家意外時該怎麼處理？</t>
+  </si>
+  <si>
+    <t>第一步先保持冷靜，評估傷勢並立即進行簡單急救（如止血、沖洗），同時盡快聯絡獸醫或送醫。日常應該把附近的動物醫院與急診電話記下來，遇到緊急狀況才能迅速行動。</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF99D1-DB70-4647-BADC-D5F8C4D9F1BE}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1380,6 +2109,1438 @@
       </c>
       <c r="D10" t="s">
         <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DA7308-013B-421E-A64B-465486ED07CB}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="51.625" customWidth="1"/>
+    <col min="4" max="4" width="67.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A3B312-0DB8-4414-9879-6342BE992E27}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2B2787-66B9-4D39-8D94-E6047BC5BA3C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.875" customWidth="1"/>
+    <col min="4" max="4" width="66.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8423BF09-87E9-4970-93EC-3DF86ABF7B15}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="4" max="4" width="63.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067952E-C4D3-48EC-9BBE-1BC9550FB559}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="63.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="84.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4616CA0-AF7E-4D46-810F-23C87472795C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="135.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36550ED9-6A20-4AEA-A31B-F221EE3E39D1}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="4" max="4" width="129.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1A4E47-9EAE-4E2F-9FFF-D3D1C8ACF58E}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="142.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B9C817-5F15-434B-B525-CCD562C42FDC}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="131.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -1546,6 +3707,319 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F2D3AD-70BA-4273-AC19-FA97AC2DE74C}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="154.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D1BB2D-68B8-437A-A8BA-E4C1E09401CC}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="144.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B4E845-653A-409A-811A-CE53A9D74D25}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="142.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03069AE-0C84-4357-AA44-C7348FB964C6}">
   <dimension ref="A1:D10"/>
